--- a/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>18.09087749672837</v>
       </c>
       <c r="C2">
-        <v>11.83875442992811</v>
+        <v>11.83875442992793</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.806762076933188</v>
+        <v>8.806762076933088</v>
       </c>
       <c r="F2">
-        <v>34.98593080440091</v>
+        <v>34.98593080440094</v>
       </c>
       <c r="G2">
-        <v>28.70179612761634</v>
+        <v>28.70179612761648</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.99070492467985</v>
+        <v>10.99070492467995</v>
       </c>
       <c r="J2">
-        <v>15.83069472902038</v>
+        <v>15.83069472902036</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>15.5444499912996</v>
+        <v>15.54444999129956</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,25 +453,25 @@
         <v>16.8090560531542</v>
       </c>
       <c r="C3">
-        <v>11.05872004952128</v>
+        <v>11.05872004952138</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.225771664506135</v>
+        <v>8.225771664506183</v>
       </c>
       <c r="F3">
-        <v>32.77839667386612</v>
+        <v>32.77839667386617</v>
       </c>
       <c r="G3">
-        <v>27.45340991059656</v>
+        <v>27.45340991059662</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.95780816999062</v>
+        <v>10.95780816999071</v>
       </c>
       <c r="J3">
         <v>14.76111336096175</v>
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.98171345105962</v>
+        <v>15.98171345105969</v>
       </c>
       <c r="C4">
-        <v>10.55691964942479</v>
+        <v>10.55691964942483</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.850647468910142</v>
+        <v>7.850647468909982</v>
       </c>
       <c r="F4">
-        <v>31.37944683358052</v>
+        <v>31.37944683358053</v>
       </c>
       <c r="G4">
-        <v>26.687860791448</v>
+        <v>26.6878607914479</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.94438673109227</v>
+        <v>10.94438673109219</v>
       </c>
       <c r="J4">
-        <v>14.07173542167298</v>
+        <v>14.07173542167308</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.92090543575132</v>
+        <v>13.92090543575128</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.63426525858922</v>
+        <v>15.63426525858925</v>
       </c>
       <c r="C5">
-        <v>10.34660636164197</v>
+        <v>10.34660636164176</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.693114609783231</v>
+        <v>7.693114609783313</v>
       </c>
       <c r="F5">
-        <v>30.79871815765994</v>
+        <v>30.79871815765993</v>
       </c>
       <c r="G5">
-        <v>26.37635973038631</v>
+        <v>26.37635973038634</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.94050537016206</v>
+        <v>10.94050537016211</v>
       </c>
       <c r="J5">
-        <v>13.78248148342239</v>
+        <v>13.78248148342232</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.65446834140156</v>
+        <v>13.65446834140155</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.57594502488382</v>
+        <v>15.57594502488372</v>
       </c>
       <c r="C6">
-        <v>10.31133014643055</v>
+        <v>10.31133014643047</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.66667346563611</v>
+        <v>7.666673465636206</v>
       </c>
       <c r="F6">
         <v>30.70165685871583</v>
       </c>
       <c r="G6">
-        <v>26.32467087190375</v>
+        <v>26.32467087190391</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.93995351739614</v>
+        <v>10.93995351739627</v>
       </c>
       <c r="J6">
-        <v>13.73394503086359</v>
+        <v>13.73394503086351</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.60977900772742</v>
+        <v>13.60977900772739</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.97706955767011</v>
+        <v>15.97706955766998</v>
       </c>
       <c r="C7">
-        <v>10.55410697127571</v>
+        <v>10.5541069712758</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.848541870821714</v>
+        <v>7.848541870821728</v>
       </c>
       <c r="F7">
-        <v>31.3716575393782</v>
+        <v>31.37165753937818</v>
       </c>
       <c r="G7">
-        <v>26.6836575589185</v>
+        <v>26.6836575589186</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.94432810452509</v>
+        <v>10.94432810452524</v>
       </c>
       <c r="J7">
-        <v>14.06786830102456</v>
+        <v>14.06786830102448</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.9173421550327</v>
+        <v>13.91734215503266</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>17.6571665175771</v>
       </c>
       <c r="C8">
-        <v>11.57449072585571</v>
+        <v>11.57449072585574</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.610227052831483</v>
+        <v>8.610227052831492</v>
       </c>
       <c r="F8">
-        <v>34.23394360155365</v>
+        <v>34.23394360155363</v>
       </c>
       <c r="G8">
-        <v>28.27127016799425</v>
+        <v>28.27127016799422</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.97788330730516</v>
+        <v>10.97788330730515</v>
       </c>
       <c r="J8">
-        <v>15.46860505496075</v>
+        <v>15.4686050549608</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.20984264568931</v>
+        <v>15.20984264568932</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>20.64012976149968</v>
       </c>
       <c r="C9">
-        <v>13.39842051013118</v>
+        <v>13.39842051013113</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.960182582954271</v>
+        <v>9.960182582954403</v>
       </c>
       <c r="F9">
-        <v>39.52749248146814</v>
+        <v>39.52749248146812</v>
       </c>
       <c r="G9">
         <v>31.38544252489675</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.10308625680462</v>
+        <v>11.10308625680467</v>
       </c>
       <c r="J9">
-        <v>17.96241356651495</v>
+        <v>17.96241356651492</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>17.5170157139408</v>
+        <v>17.51701571394087</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.65391572798476</v>
+        <v>22.65391572798474</v>
       </c>
       <c r="C10">
-        <v>14.63770504402557</v>
+        <v>14.63770504402582</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.86801478594059</v>
+        <v>10.86801478594052</v>
       </c>
       <c r="F10">
-        <v>43.38504368174387</v>
+        <v>43.38504368174397</v>
       </c>
       <c r="G10">
-        <v>33.66993166855706</v>
+        <v>33.6699316685572</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.2397722610748</v>
+        <v>11.23977226107484</v>
       </c>
       <c r="J10">
         <v>19.64996269470516</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.08021974587326</v>
+        <v>19.08021974587322</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.53447653061658</v>
+        <v>23.53447653061639</v>
       </c>
       <c r="C11">
-        <v>15.18154290959565</v>
+        <v>15.18154290959587</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.26371680549092</v>
+        <v>11.26371680549105</v>
       </c>
       <c r="F11">
-        <v>45.08389579312617</v>
+        <v>45.08389579312611</v>
       </c>
       <c r="G11">
-        <v>34.70917190607857</v>
+        <v>34.70917190607861</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.31375909762821</v>
+        <v>11.31375909762824</v>
       </c>
       <c r="J11">
-        <v>20.38875427570834</v>
+        <v>20.38875427570828</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>19.76462781081669</v>
+        <v>19.76462781081671</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,16 +795,16 @@
         <v>23.86309953708533</v>
       </c>
       <c r="C12">
-        <v>15.38480491801903</v>
+        <v>15.38480491801899</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.41116323716576</v>
+        <v>11.41116323716573</v>
       </c>
       <c r="F12">
-        <v>45.7195810180292</v>
+        <v>45.71958101802916</v>
       </c>
       <c r="G12">
         <v>35.10287892461017</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.34367040953552</v>
+        <v>11.34367040953561</v>
       </c>
       <c r="J12">
-        <v>20.66460055396596</v>
+        <v>20.66460055396594</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.02014376646164</v>
+        <v>20.02014376646162</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.79253449687657</v>
+        <v>23.79253449687664</v>
       </c>
       <c r="C13">
-        <v>15.34114462737189</v>
+        <v>15.34114462737194</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.37951313977522</v>
+        <v>11.37951313977515</v>
       </c>
       <c r="F13">
-        <v>45.58300678196716</v>
+        <v>45.58300678196726</v>
       </c>
       <c r="G13">
-        <v>35.01807585675805</v>
+        <v>35.0180758567582</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.33714087677576</v>
+        <v>11.33714087677578</v>
       </c>
       <c r="J13">
-        <v>20.60536229756876</v>
+        <v>20.60536229756881</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.56160753613462</v>
+        <v>23.56160753613466</v>
       </c>
       <c r="C14">
-        <v>15.19831789345014</v>
+        <v>15.19831789345012</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.27589482459881</v>
+        <v>11.27589482459878</v>
       </c>
       <c r="F14">
-        <v>45.13634429378941</v>
+        <v>45.13634429378939</v>
       </c>
       <c r="G14">
-        <v>34.74155772803065</v>
+        <v>34.74155772803058</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.31618075810039</v>
+        <v>11.31618075810036</v>
       </c>
       <c r="J14">
-        <v>20.41152538014289</v>
+        <v>20.4115253801429</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>19.78572134437085</v>
+        <v>19.78572134437086</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.41953850893924</v>
+        <v>23.41953850893926</v>
       </c>
       <c r="C15">
-        <v>15.11048969861106</v>
+        <v>15.11048969861113</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.21211616139866</v>
+        <v>11.2121161613986</v>
       </c>
       <c r="F15">
-        <v>44.86177034801786</v>
+        <v>44.86177034801798</v>
       </c>
       <c r="G15">
-        <v>34.57221102709246</v>
+        <v>34.57221102709264</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.30359493605423</v>
+        <v>11.30359493605424</v>
       </c>
       <c r="J15">
-        <v>20.29229193540499</v>
+        <v>20.29229193540503</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>19.67527073883726</v>
+        <v>19.67527073883725</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.59567757194448</v>
+        <v>22.5956775719445</v>
       </c>
       <c r="C16">
-        <v>14.60177849859148</v>
+        <v>14.60177849859123</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.8418142998524</v>
+        <v>10.84181429985236</v>
       </c>
       <c r="F16">
-        <v>43.27292699932747</v>
+        <v>43.27292699932746</v>
       </c>
       <c r="G16">
-        <v>33.6020273172241</v>
+        <v>33.60202731722415</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.23519094175366</v>
+        <v>11.23519094175373</v>
       </c>
       <c r="J16">
-        <v>19.60111915117869</v>
+        <v>19.60111915117865</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>19.03496996856425</v>
+        <v>19.03496996856423</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.08135818908503</v>
+        <v>22.08135818908501</v>
       </c>
       <c r="C17">
-        <v>14.28472356982777</v>
+        <v>14.28472356982765</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.61028014277154</v>
+        <v>10.61028014277152</v>
       </c>
       <c r="F17">
-        <v>42.28415672140153</v>
+        <v>42.28415672140159</v>
       </c>
       <c r="G17">
-        <v>33.00694432013057</v>
+        <v>33.00694432013076</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.19638465752454</v>
+        <v>11.19638465752462</v>
       </c>
       <c r="J17">
-        <v>19.16986743961458</v>
+        <v>19.16986743961453</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.63545050225858</v>
+        <v>18.63545050225854</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.78217328560126</v>
+        <v>21.78217328560111</v>
       </c>
       <c r="C18">
-        <v>14.10047443125127</v>
+        <v>14.10047443125134</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.47547600492331</v>
+        <v>10.4754760049233</v>
       </c>
       <c r="F18">
-        <v>41.71014433009359</v>
+        <v>41.71014433009351</v>
       </c>
       <c r="G18">
         <v>32.66465414033301</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.17516281368624</v>
+        <v>11.17516281368633</v>
       </c>
       <c r="J18">
-        <v>18.91908848754836</v>
+        <v>18.91908848754828</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.40313156629558</v>
+        <v>18.40313156629552</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.68028893558298</v>
+        <v>21.68028893558308</v>
       </c>
       <c r="C19">
-        <v>14.03776139199155</v>
+        <v>14.03776139199162</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.42955088927257</v>
+        <v>10.42955088927232</v>
       </c>
       <c r="F19">
-        <v>41.51487243442794</v>
+        <v>41.51487243442801</v>
       </c>
       <c r="G19">
-        <v>32.54875456207865</v>
+        <v>32.54875456207875</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.16816048971331</v>
+        <v>11.16816048971328</v>
       </c>
       <c r="J19">
-        <v>18.83370273019222</v>
+        <v>18.83370273019233</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.32403334252576</v>
+        <v>18.32403334252574</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.13645438347967</v>
+        <v>22.13645438347969</v>
       </c>
       <c r="C20">
-        <v>14.31866869225593</v>
+        <v>14.318668692256</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.6350956382362</v>
+        <v>10.63509563823623</v>
       </c>
       <c r="F20">
-        <v>42.38995858336484</v>
+        <v>42.3899585833649</v>
       </c>
       <c r="G20">
-        <v>33.0702924767919</v>
+        <v>33.07029247679188</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.20040060726364</v>
+        <v>11.20040060726367</v>
       </c>
       <c r="J20">
         <v>19.21605630980002</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>18.6782401994998</v>
+        <v>18.67824019949983</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.62956495470399</v>
+        <v>23.62956495470404</v>
       </c>
       <c r="C21">
-        <v>15.24034061263326</v>
+        <v>15.24034061263325</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.30639435575286</v>
+        <v>11.30639435575272</v>
       </c>
       <c r="F21">
-        <v>45.26774331834373</v>
+        <v>45.26774331834367</v>
       </c>
       <c r="G21">
-        <v>34.82277140295889</v>
+        <v>34.82277140295887</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.32228417704611</v>
+        <v>11.32228417704608</v>
       </c>
       <c r="J21">
-        <v>20.46856428660298</v>
+        <v>20.46856428660301</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>19.83855762207944</v>
+        <v>19.83855762207937</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.57742396049211</v>
+        <v>24.57742396049222</v>
       </c>
       <c r="C22">
-        <v>15.82720656986305</v>
+        <v>15.82720656986296</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.73120122235969</v>
+        <v>11.73120122235966</v>
       </c>
       <c r="F22">
-        <v>47.10430595975439</v>
+        <v>47.10430595975447</v>
       </c>
       <c r="G22">
-        <v>35.96925234068319</v>
+        <v>35.96925234068325</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.41308974357945</v>
+        <v>11.41308974357941</v>
       </c>
       <c r="J22">
-        <v>21.26444580547038</v>
+        <v>21.26444580547047</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>20.57569748011968</v>
+        <v>20.57569748011973</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.07399138946435</v>
+        <v>24.07399138946428</v>
       </c>
       <c r="C23">
-        <v>15.51533438058917</v>
+        <v>15.51533438058907</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1222,25 +1222,25 @@
         <v>11.50571658928392</v>
       </c>
       <c r="F23">
-        <v>46.12798544348198</v>
+        <v>46.12798544348195</v>
       </c>
       <c r="G23">
-        <v>35.35716945449343</v>
+        <v>35.35716945449342</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.36353445764951</v>
+        <v>11.36353445764963</v>
       </c>
       <c r="J23">
-        <v>20.84166023484131</v>
+        <v>20.84166023484122</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>20.18414273530981</v>
+        <v>20.18414273530977</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,25 +1251,25 @@
         <v>22.11155630357576</v>
       </c>
       <c r="C24">
-        <v>14.30332825236709</v>
+        <v>14.30332825236711</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.62388182957477</v>
+        <v>10.62388182957486</v>
       </c>
       <c r="F24">
-        <v>42.34214289499612</v>
+        <v>42.34214289499609</v>
       </c>
       <c r="G24">
-        <v>33.04165331306518</v>
+        <v>33.04165331306508</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.19858162081075</v>
+        <v>11.19858162081076</v>
       </c>
       <c r="J24">
         <v>19.1951832054661</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>18.65890318245684</v>
+        <v>18.65890318245687</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>19.86533304574311</v>
       </c>
       <c r="C25">
-        <v>12.92327776848237</v>
+        <v>12.92327776848221</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.610022035778442</v>
+        <v>9.610022035778483</v>
       </c>
       <c r="F25">
-        <v>38.1098520605759</v>
+        <v>38.10985206057582</v>
       </c>
       <c r="G25">
-        <v>30.54356426850004</v>
+        <v>30.54356426849988</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.06202437840492</v>
+        <v>11.06202437840476</v>
       </c>
       <c r="J25">
-        <v>17.31394018077005</v>
+        <v>17.31394018077004</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.9165899711319</v>
+        <v>16.91658997113192</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>18.09087749672837</v>
       </c>
       <c r="C2">
-        <v>11.83875442992793</v>
+        <v>11.83875442992811</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.806762076933088</v>
+        <v>8.806762076933188</v>
       </c>
       <c r="F2">
-        <v>34.98593080440094</v>
+        <v>34.98593080440091</v>
       </c>
       <c r="G2">
-        <v>28.70179612761648</v>
+        <v>28.70179612761634</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.99070492467995</v>
+        <v>10.99070492467985</v>
       </c>
       <c r="J2">
-        <v>15.83069472902036</v>
+        <v>15.83069472902038</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>15.54444999129956</v>
+        <v>15.5444499912996</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,25 +453,25 @@
         <v>16.8090560531542</v>
       </c>
       <c r="C3">
-        <v>11.05872004952138</v>
+        <v>11.05872004952128</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.225771664506183</v>
+        <v>8.225771664506135</v>
       </c>
       <c r="F3">
-        <v>32.77839667386617</v>
+        <v>32.77839667386612</v>
       </c>
       <c r="G3">
-        <v>27.45340991059662</v>
+        <v>27.45340991059656</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.95780816999071</v>
+        <v>10.95780816999062</v>
       </c>
       <c r="J3">
         <v>14.76111336096175</v>
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.98171345105969</v>
+        <v>15.98171345105962</v>
       </c>
       <c r="C4">
-        <v>10.55691964942483</v>
+        <v>10.55691964942479</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.850647468909982</v>
+        <v>7.850647468910142</v>
       </c>
       <c r="F4">
-        <v>31.37944683358053</v>
+        <v>31.37944683358052</v>
       </c>
       <c r="G4">
-        <v>26.6878607914479</v>
+        <v>26.687860791448</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.94438673109219</v>
+        <v>10.94438673109227</v>
       </c>
       <c r="J4">
-        <v>14.07173542167308</v>
+        <v>14.07173542167298</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.92090543575128</v>
+        <v>13.92090543575132</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.63426525858925</v>
+        <v>15.63426525858922</v>
       </c>
       <c r="C5">
-        <v>10.34660636164176</v>
+        <v>10.34660636164197</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.693114609783313</v>
+        <v>7.693114609783231</v>
       </c>
       <c r="F5">
-        <v>30.79871815765993</v>
+        <v>30.79871815765994</v>
       </c>
       <c r="G5">
-        <v>26.37635973038634</v>
+        <v>26.37635973038631</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.94050537016211</v>
+        <v>10.94050537016206</v>
       </c>
       <c r="J5">
-        <v>13.78248148342232</v>
+        <v>13.78248148342239</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.65446834140155</v>
+        <v>13.65446834140156</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.57594502488372</v>
+        <v>15.57594502488382</v>
       </c>
       <c r="C6">
-        <v>10.31133014643047</v>
+        <v>10.31133014643055</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.666673465636206</v>
+        <v>7.66667346563611</v>
       </c>
       <c r="F6">
         <v>30.70165685871583</v>
       </c>
       <c r="G6">
-        <v>26.32467087190391</v>
+        <v>26.32467087190375</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.93995351739627</v>
+        <v>10.93995351739614</v>
       </c>
       <c r="J6">
-        <v>13.73394503086351</v>
+        <v>13.73394503086359</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.60977900772739</v>
+        <v>13.60977900772742</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.97706955766998</v>
+        <v>15.97706955767011</v>
       </c>
       <c r="C7">
-        <v>10.5541069712758</v>
+        <v>10.55410697127571</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.848541870821728</v>
+        <v>7.848541870821714</v>
       </c>
       <c r="F7">
-        <v>31.37165753937818</v>
+        <v>31.3716575393782</v>
       </c>
       <c r="G7">
-        <v>26.6836575589186</v>
+        <v>26.6836575589185</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.94432810452524</v>
+        <v>10.94432810452509</v>
       </c>
       <c r="J7">
-        <v>14.06786830102448</v>
+        <v>14.06786830102456</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.91734215503266</v>
+        <v>13.9173421550327</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>17.6571665175771</v>
       </c>
       <c r="C8">
-        <v>11.57449072585574</v>
+        <v>11.57449072585571</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.610227052831492</v>
+        <v>8.610227052831483</v>
       </c>
       <c r="F8">
-        <v>34.23394360155363</v>
+        <v>34.23394360155365</v>
       </c>
       <c r="G8">
-        <v>28.27127016799422</v>
+        <v>28.27127016799425</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.97788330730515</v>
+        <v>10.97788330730516</v>
       </c>
       <c r="J8">
-        <v>15.4686050549608</v>
+        <v>15.46860505496075</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.20984264568932</v>
+        <v>15.20984264568931</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>20.64012976149968</v>
       </c>
       <c r="C9">
-        <v>13.39842051013113</v>
+        <v>13.39842051013118</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.960182582954403</v>
+        <v>9.960182582954271</v>
       </c>
       <c r="F9">
-        <v>39.52749248146812</v>
+        <v>39.52749248146814</v>
       </c>
       <c r="G9">
         <v>31.38544252489675</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.10308625680467</v>
+        <v>11.10308625680462</v>
       </c>
       <c r="J9">
-        <v>17.96241356651492</v>
+        <v>17.96241356651495</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>17.51701571394087</v>
+        <v>17.5170157139408</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.65391572798474</v>
+        <v>22.65391572798476</v>
       </c>
       <c r="C10">
-        <v>14.63770504402582</v>
+        <v>14.63770504402557</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.86801478594052</v>
+        <v>10.86801478594059</v>
       </c>
       <c r="F10">
-        <v>43.38504368174397</v>
+        <v>43.38504368174387</v>
       </c>
       <c r="G10">
-        <v>33.6699316685572</v>
+        <v>33.66993166855706</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.23977226107484</v>
+        <v>11.2397722610748</v>
       </c>
       <c r="J10">
         <v>19.64996269470516</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.08021974587322</v>
+        <v>19.08021974587326</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.53447653061639</v>
+        <v>23.53447653061658</v>
       </c>
       <c r="C11">
-        <v>15.18154290959587</v>
+        <v>15.18154290959565</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.26371680549105</v>
+        <v>11.26371680549092</v>
       </c>
       <c r="F11">
-        <v>45.08389579312611</v>
+        <v>45.08389579312617</v>
       </c>
       <c r="G11">
-        <v>34.70917190607861</v>
+        <v>34.70917190607857</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.31375909762824</v>
+        <v>11.31375909762821</v>
       </c>
       <c r="J11">
-        <v>20.38875427570828</v>
+        <v>20.38875427570834</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>19.76462781081671</v>
+        <v>19.76462781081669</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,16 +795,16 @@
         <v>23.86309953708533</v>
       </c>
       <c r="C12">
-        <v>15.38480491801899</v>
+        <v>15.38480491801903</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.41116323716573</v>
+        <v>11.41116323716576</v>
       </c>
       <c r="F12">
-        <v>45.71958101802916</v>
+        <v>45.7195810180292</v>
       </c>
       <c r="G12">
         <v>35.10287892461017</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.34367040953561</v>
+        <v>11.34367040953552</v>
       </c>
       <c r="J12">
-        <v>20.66460055396594</v>
+        <v>20.66460055396596</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.02014376646162</v>
+        <v>20.02014376646164</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.79253449687664</v>
+        <v>23.79253449687657</v>
       </c>
       <c r="C13">
-        <v>15.34114462737194</v>
+        <v>15.34114462737189</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.37951313977515</v>
+        <v>11.37951313977522</v>
       </c>
       <c r="F13">
-        <v>45.58300678196726</v>
+        <v>45.58300678196716</v>
       </c>
       <c r="G13">
-        <v>35.0180758567582</v>
+        <v>35.01807585675805</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.33714087677578</v>
+        <v>11.33714087677576</v>
       </c>
       <c r="J13">
-        <v>20.60536229756881</v>
+        <v>20.60536229756876</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.56160753613466</v>
+        <v>23.56160753613462</v>
       </c>
       <c r="C14">
-        <v>15.19831789345012</v>
+        <v>15.19831789345014</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.27589482459878</v>
+        <v>11.27589482459881</v>
       </c>
       <c r="F14">
-        <v>45.13634429378939</v>
+        <v>45.13634429378941</v>
       </c>
       <c r="G14">
-        <v>34.74155772803058</v>
+        <v>34.74155772803065</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.31618075810036</v>
+        <v>11.31618075810039</v>
       </c>
       <c r="J14">
-        <v>20.4115253801429</v>
+        <v>20.41152538014289</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>19.78572134437086</v>
+        <v>19.78572134437085</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.41953850893926</v>
+        <v>23.41953850893924</v>
       </c>
       <c r="C15">
-        <v>15.11048969861113</v>
+        <v>15.11048969861106</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.2121161613986</v>
+        <v>11.21211616139866</v>
       </c>
       <c r="F15">
-        <v>44.86177034801798</v>
+        <v>44.86177034801786</v>
       </c>
       <c r="G15">
-        <v>34.57221102709264</v>
+        <v>34.57221102709246</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.30359493605424</v>
+        <v>11.30359493605423</v>
       </c>
       <c r="J15">
-        <v>20.29229193540503</v>
+        <v>20.29229193540499</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>19.67527073883725</v>
+        <v>19.67527073883726</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.5956775719445</v>
+        <v>22.59567757194448</v>
       </c>
       <c r="C16">
-        <v>14.60177849859123</v>
+        <v>14.60177849859148</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.84181429985236</v>
+        <v>10.8418142998524</v>
       </c>
       <c r="F16">
-        <v>43.27292699932746</v>
+        <v>43.27292699932747</v>
       </c>
       <c r="G16">
-        <v>33.60202731722415</v>
+        <v>33.6020273172241</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.23519094175373</v>
+        <v>11.23519094175366</v>
       </c>
       <c r="J16">
-        <v>19.60111915117865</v>
+        <v>19.60111915117869</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>19.03496996856423</v>
+        <v>19.03496996856425</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.08135818908501</v>
+        <v>22.08135818908503</v>
       </c>
       <c r="C17">
-        <v>14.28472356982765</v>
+        <v>14.28472356982777</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.61028014277152</v>
+        <v>10.61028014277154</v>
       </c>
       <c r="F17">
-        <v>42.28415672140159</v>
+        <v>42.28415672140153</v>
       </c>
       <c r="G17">
-        <v>33.00694432013076</v>
+        <v>33.00694432013057</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.19638465752462</v>
+        <v>11.19638465752454</v>
       </c>
       <c r="J17">
-        <v>19.16986743961453</v>
+        <v>19.16986743961458</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.63545050225854</v>
+        <v>18.63545050225858</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.78217328560111</v>
+        <v>21.78217328560126</v>
       </c>
       <c r="C18">
-        <v>14.10047443125134</v>
+        <v>14.10047443125127</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.4754760049233</v>
+        <v>10.47547600492331</v>
       </c>
       <c r="F18">
-        <v>41.71014433009351</v>
+        <v>41.71014433009359</v>
       </c>
       <c r="G18">
         <v>32.66465414033301</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.17516281368633</v>
+        <v>11.17516281368624</v>
       </c>
       <c r="J18">
-        <v>18.91908848754828</v>
+        <v>18.91908848754836</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.40313156629552</v>
+        <v>18.40313156629558</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.68028893558308</v>
+        <v>21.68028893558298</v>
       </c>
       <c r="C19">
-        <v>14.03776139199162</v>
+        <v>14.03776139199155</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.42955088927232</v>
+        <v>10.42955088927257</v>
       </c>
       <c r="F19">
-        <v>41.51487243442801</v>
+        <v>41.51487243442794</v>
       </c>
       <c r="G19">
-        <v>32.54875456207875</v>
+        <v>32.54875456207865</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.16816048971328</v>
+        <v>11.16816048971331</v>
       </c>
       <c r="J19">
-        <v>18.83370273019233</v>
+        <v>18.83370273019222</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.32403334252574</v>
+        <v>18.32403334252576</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.13645438347969</v>
+        <v>22.13645438347967</v>
       </c>
       <c r="C20">
-        <v>14.318668692256</v>
+        <v>14.31866869225593</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.63509563823623</v>
+        <v>10.6350956382362</v>
       </c>
       <c r="F20">
-        <v>42.3899585833649</v>
+        <v>42.38995858336484</v>
       </c>
       <c r="G20">
-        <v>33.07029247679188</v>
+        <v>33.0702924767919</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.20040060726367</v>
+        <v>11.20040060726364</v>
       </c>
       <c r="J20">
         <v>19.21605630980002</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>18.67824019949983</v>
+        <v>18.6782401994998</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.62956495470404</v>
+        <v>23.62956495470399</v>
       </c>
       <c r="C21">
-        <v>15.24034061263325</v>
+        <v>15.24034061263326</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.30639435575272</v>
+        <v>11.30639435575286</v>
       </c>
       <c r="F21">
-        <v>45.26774331834367</v>
+        <v>45.26774331834373</v>
       </c>
       <c r="G21">
-        <v>34.82277140295887</v>
+        <v>34.82277140295889</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.32228417704608</v>
+        <v>11.32228417704611</v>
       </c>
       <c r="J21">
-        <v>20.46856428660301</v>
+        <v>20.46856428660298</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>19.83855762207937</v>
+        <v>19.83855762207944</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.57742396049222</v>
+        <v>24.57742396049211</v>
       </c>
       <c r="C22">
-        <v>15.82720656986296</v>
+        <v>15.82720656986305</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.73120122235966</v>
+        <v>11.73120122235969</v>
       </c>
       <c r="F22">
-        <v>47.10430595975447</v>
+        <v>47.10430595975439</v>
       </c>
       <c r="G22">
-        <v>35.96925234068325</v>
+        <v>35.96925234068319</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.41308974357941</v>
+        <v>11.41308974357945</v>
       </c>
       <c r="J22">
-        <v>21.26444580547047</v>
+        <v>21.26444580547038</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>20.57569748011973</v>
+        <v>20.57569748011968</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.07399138946428</v>
+        <v>24.07399138946435</v>
       </c>
       <c r="C23">
-        <v>15.51533438058907</v>
+        <v>15.51533438058917</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1222,25 +1222,25 @@
         <v>11.50571658928392</v>
       </c>
       <c r="F23">
-        <v>46.12798544348195</v>
+        <v>46.12798544348198</v>
       </c>
       <c r="G23">
-        <v>35.35716945449342</v>
+        <v>35.35716945449343</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.36353445764963</v>
+        <v>11.36353445764951</v>
       </c>
       <c r="J23">
-        <v>20.84166023484122</v>
+        <v>20.84166023484131</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>20.18414273530977</v>
+        <v>20.18414273530981</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,25 +1251,25 @@
         <v>22.11155630357576</v>
       </c>
       <c r="C24">
-        <v>14.30332825236711</v>
+        <v>14.30332825236709</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.62388182957486</v>
+        <v>10.62388182957477</v>
       </c>
       <c r="F24">
-        <v>42.34214289499609</v>
+        <v>42.34214289499612</v>
       </c>
       <c r="G24">
-        <v>33.04165331306508</v>
+        <v>33.04165331306518</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.19858162081076</v>
+        <v>11.19858162081075</v>
       </c>
       <c r="J24">
         <v>19.1951832054661</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>18.65890318245687</v>
+        <v>18.65890318245684</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>19.86533304574311</v>
       </c>
       <c r="C25">
-        <v>12.92327776848221</v>
+        <v>12.92327776848237</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.610022035778483</v>
+        <v>9.610022035778442</v>
       </c>
       <c r="F25">
-        <v>38.10985206057582</v>
+        <v>38.1098520605759</v>
       </c>
       <c r="G25">
-        <v>30.54356426849988</v>
+        <v>30.54356426850004</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.06202437840476</v>
+        <v>11.06202437840492</v>
       </c>
       <c r="J25">
-        <v>17.31394018077004</v>
+        <v>17.31394018077005</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.91658997113192</v>
+        <v>16.9165899711319</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.09087749672837</v>
+        <v>18.0892988930829</v>
       </c>
       <c r="C2">
-        <v>11.83875442992811</v>
+        <v>11.8371875704814</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.806762076933188</v>
+        <v>8.819080659739333</v>
       </c>
       <c r="F2">
-        <v>34.98593080440091</v>
+        <v>34.96430087693633</v>
       </c>
       <c r="G2">
-        <v>28.70179612761634</v>
+        <v>27.38138766834689</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>28.7233473304591</v>
       </c>
       <c r="I2">
-        <v>10.99070492467985</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.83069472902038</v>
+        <v>10.97636300563194</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.82916732829367</v>
       </c>
       <c r="L2">
-        <v>15.5444499912996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>15.54912702513515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.8090560531542</v>
+        <v>16.80777701387742</v>
       </c>
       <c r="C3">
-        <v>11.05872004952128</v>
+        <v>11.05751599829075</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.225771664506135</v>
+        <v>8.237134524717096</v>
       </c>
       <c r="F3">
-        <v>32.77839667386612</v>
+        <v>32.75814805849981</v>
       </c>
       <c r="G3">
-        <v>27.45340991059656</v>
+        <v>25.90813470085811</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>27.47502568725156</v>
       </c>
       <c r="I3">
-        <v>10.95780816999062</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>14.76111336096175</v>
+        <v>10.94478941544137</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.7599224567935</v>
       </c>
       <c r="L3">
-        <v>14.55659416717309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>14.56103751125746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.98171345105962</v>
+        <v>15.98061504728933</v>
       </c>
       <c r="C4">
-        <v>10.55691964942479</v>
+        <v>10.55594446919067</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.850647468910142</v>
+        <v>7.861386442094971</v>
       </c>
       <c r="F4">
-        <v>31.37944683358052</v>
+        <v>31.36008631382943</v>
       </c>
       <c r="G4">
-        <v>26.687860791448</v>
+        <v>24.99132496292497</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>26.70961612693188</v>
       </c>
       <c r="I4">
-        <v>10.94438673109227</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>14.07173542167298</v>
+        <v>10.932178894338</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.07075419068683</v>
       </c>
       <c r="L4">
-        <v>13.92090543575132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>13.92519013799107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.63426525858922</v>
+        <v>15.6332398775304</v>
       </c>
       <c r="C5">
-        <v>10.34660636164197</v>
+        <v>10.3457263409183</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.693114609783231</v>
+        <v>7.703589782259932</v>
       </c>
       <c r="F5">
-        <v>30.79871815765994</v>
+        <v>30.77973006710075</v>
       </c>
       <c r="G5">
-        <v>26.37635973038631</v>
+        <v>24.61491908145264</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>26.39819729563011</v>
       </c>
       <c r="I5">
-        <v>10.94050537016206</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>13.78248148342239</v>
+        <v>10.92862761317428</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.781586802496</v>
       </c>
       <c r="L5">
-        <v>13.65446834140156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>13.65868469988964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.57594502488382</v>
+        <v>15.57493174026066</v>
       </c>
       <c r="C6">
-        <v>10.31133014643055</v>
+        <v>10.31046605182139</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.66667346563611</v>
+        <v>7.677104249084519</v>
       </c>
       <c r="F6">
-        <v>30.70165685871583</v>
+        <v>30.6827312586325</v>
       </c>
       <c r="G6">
-        <v>26.32467087190375</v>
+        <v>24.55225786925052</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>26.34652362695682</v>
       </c>
       <c r="I6">
-        <v>10.93995351739614</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>13.73394503086359</v>
+        <v>10.92813054796081</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.73306479821808</v>
       </c>
       <c r="L6">
-        <v>13.60977900772742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>13.61398379771778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.97706955767011</v>
+        <v>15.97597214078911</v>
       </c>
       <c r="C7">
-        <v>10.55410697127571</v>
+        <v>10.55313306625373</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.848541870821714</v>
+        <v>7.859277325352666</v>
       </c>
       <c r="F7">
-        <v>31.3716575393782</v>
+        <v>31.35230199912369</v>
       </c>
       <c r="G7">
-        <v>26.6836575589185</v>
+        <v>24.98625952548698</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>26.70541390050013</v>
       </c>
       <c r="I7">
-        <v>10.94432810452509</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>14.06786830102456</v>
+        <v>10.93212472083406</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.06688823235689</v>
       </c>
       <c r="L7">
-        <v>13.9173421550327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>13.92162595038553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.6571665175771</v>
+        <v>17.65569204243309</v>
       </c>
       <c r="C8">
-        <v>11.57449072585571</v>
+        <v>11.57304790892758</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.610227052831483</v>
+        <v>8.622223660429034</v>
       </c>
       <c r="F8">
-        <v>34.23394360155365</v>
+        <v>34.21278194988446</v>
       </c>
       <c r="G8">
-        <v>28.27127016799425</v>
+        <v>26.87608639107657</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>28.29282308126682</v>
       </c>
       <c r="I8">
-        <v>10.97788330730516</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>15.46860505496075</v>
+        <v>10.96399792116834</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.46719324545119</v>
       </c>
       <c r="L8">
-        <v>15.20984264568931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>15.21444232182894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.64012976149968</v>
+        <v>20.63787717531347</v>
       </c>
       <c r="C9">
-        <v>13.39842051013118</v>
+        <v>13.39609061365323</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.960182582954271</v>
+        <v>9.974367583690279</v>
       </c>
       <c r="F9">
-        <v>39.52749248146814</v>
+        <v>39.50302710202214</v>
       </c>
       <c r="G9">
-        <v>31.38544252489675</v>
+        <v>30.47753270561272</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>31.40737307765774</v>
       </c>
       <c r="I9">
-        <v>11.10308625680462</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>17.96241356651495</v>
+        <v>11.08589195987225</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.96016398091145</v>
       </c>
       <c r="L9">
-        <v>17.5170157139408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>17.52210865350729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.65391572798476</v>
+        <v>22.65104734527716</v>
       </c>
       <c r="C10">
-        <v>14.63770504402557</v>
+        <v>14.63472012320607</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.86801478594059</v>
+        <v>10.88364556477476</v>
       </c>
       <c r="F10">
-        <v>43.38504368174387</v>
+        <v>43.35836352342947</v>
       </c>
       <c r="G10">
-        <v>33.66993166855706</v>
+        <v>33.05655683086947</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>33.6925861670202</v>
       </c>
       <c r="I10">
-        <v>11.2397722610748</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>19.64996269470516</v>
+        <v>11.2201447371165</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.6470801007611</v>
       </c>
       <c r="L10">
-        <v>19.08021974587326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>19.08558839777725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.53447653061658</v>
+        <v>23.53131275788847</v>
       </c>
       <c r="C11">
-        <v>15.18154290959565</v>
+        <v>15.17825364283754</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.26371680549092</v>
+        <v>11.27997234929307</v>
       </c>
       <c r="F11">
-        <v>45.08389579312617</v>
+        <v>45.05622596788862</v>
       </c>
       <c r="G11">
-        <v>34.70917190607857</v>
+        <v>34.21652291888573</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>34.73224613455412</v>
       </c>
       <c r="I11">
-        <v>11.31375909762821</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>20.38875427570834</v>
+        <v>11.29302563136945</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.38557413139989</v>
       </c>
       <c r="L11">
-        <v>19.76462781081669</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>19.77010032066098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.86309953708533</v>
+        <v>23.85982113138868</v>
       </c>
       <c r="C12">
-        <v>15.38480491801903</v>
+        <v>15.38139894383387</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.41116323716576</v>
+        <v>11.42765080305876</v>
       </c>
       <c r="F12">
-        <v>45.7195810180292</v>
+        <v>45.69153812861517</v>
       </c>
       <c r="G12">
-        <v>35.10287892461017</v>
+        <v>34.65409549947189</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>35.12612452611068</v>
       </c>
       <c r="I12">
-        <v>11.34367040953552</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>20.66460055396596</v>
+        <v>11.32251843467048</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.66130578868658</v>
       </c>
       <c r="L12">
-        <v>20.02014376646164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>20.02565221553403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.79253449687657</v>
+        <v>23.78928091328948</v>
       </c>
       <c r="C13">
-        <v>15.34114462737189</v>
+        <v>15.33776386256676</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.37951313977522</v>
+        <v>11.39595093577089</v>
       </c>
       <c r="F13">
-        <v>45.58300678196716</v>
+        <v>45.55504417839906</v>
       </c>
       <c r="G13">
-        <v>35.01807585675805</v>
+        <v>34.55992654445598</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>35.04128400633572</v>
       </c>
       <c r="I13">
-        <v>11.33714087677576</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>20.60536229756876</v>
+        <v>11.31607902001923</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.60209231446564</v>
       </c>
       <c r="L13">
-        <v>19.96527312134931</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>19.97077398624288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.56160753613462</v>
+        <v>23.5584343918167</v>
       </c>
       <c r="C14">
-        <v>15.19831789345014</v>
+        <v>15.19501905771528</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.27589482459881</v>
+        <v>11.29216954746458</v>
       </c>
       <c r="F14">
-        <v>45.13634429378941</v>
+        <v>45.10864374775579</v>
       </c>
       <c r="G14">
-        <v>34.74155772803065</v>
+        <v>34.25255433261354</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>34.76464580963456</v>
       </c>
       <c r="I14">
-        <v>11.31618075810039</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>20.41152538014289</v>
+        <v>11.29541285425003</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.40833584844565</v>
       </c>
       <c r="L14">
-        <v>19.78572134437085</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>19.79119688074976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.41953850893924</v>
+        <v>23.4164142555079</v>
       </c>
       <c r="C15">
-        <v>15.11048969861106</v>
+        <v>15.1072408394608</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.21211616139866</v>
+        <v>11.22829040812229</v>
       </c>
       <c r="F15">
-        <v>44.86177034801786</v>
+        <v>44.83423051301611</v>
       </c>
       <c r="G15">
-        <v>34.57221102709246</v>
+        <v>34.06406938021121</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>34.59522716537452</v>
       </c>
       <c r="I15">
-        <v>11.30359493605423</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>20.29229193540499</v>
+        <v>11.28300712883831</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.28915141087987</v>
       </c>
       <c r="L15">
-        <v>19.67527073883726</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>19.68073030979971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.59567757194448</v>
+        <v>22.59282813932789</v>
       </c>
       <c r="C16">
-        <v>14.60177849859148</v>
+        <v>14.5988132946788</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.8418142998524</v>
+        <v>10.85740360100566</v>
       </c>
       <c r="F16">
-        <v>43.27292699932747</v>
+        <v>43.24631180666048</v>
       </c>
       <c r="G16">
-        <v>33.6020273172241</v>
+        <v>32.98050056706867</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>33.62465615597308</v>
       </c>
       <c r="I16">
-        <v>11.23519094175366</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>19.60111915117869</v>
+        <v>11.21563572565355</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.59825576344622</v>
       </c>
       <c r="L16">
-        <v>19.03496996856425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>19.04033137578379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.08135818908503</v>
+        <v>22.07867306050703</v>
       </c>
       <c r="C17">
-        <v>14.28472356982777</v>
+        <v>14.28193038483991</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.61028014277154</v>
+        <v>10.62550228859195</v>
       </c>
       <c r="F17">
-        <v>42.28415672140153</v>
+        <v>42.25811276841276</v>
       </c>
       <c r="G17">
-        <v>33.00694432013057</v>
+        <v>32.31250084087196</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>33.0293583148444</v>
       </c>
       <c r="I17">
-        <v>11.19638465752454</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>19.16986743961458</v>
+        <v>11.17746325115824</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.16717123361861</v>
       </c>
       <c r="L17">
-        <v>18.63545050225858</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>18.64074597790247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.78217328560126</v>
+        <v>21.77958126429387</v>
       </c>
       <c r="C18">
-        <v>14.10047443125127</v>
+        <v>14.0977796235788</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.47547600492331</v>
+        <v>10.49048386346473</v>
       </c>
       <c r="F18">
-        <v>41.71014433009359</v>
+        <v>41.68443067867634</v>
       </c>
       <c r="G18">
-        <v>32.66465414033301</v>
+        <v>31.92701891524059</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>32.68695310625355</v>
       </c>
       <c r="I18">
-        <v>11.17516281368624</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>18.91908848754836</v>
+        <v>11.1566060369751</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.91648757563603</v>
       </c>
       <c r="L18">
-        <v>18.40313156629558</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>18.40838711030565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.68028893558298</v>
+        <v>21.67772821503529</v>
       </c>
       <c r="C19">
-        <v>14.03776139199155</v>
+        <v>14.03509981171797</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.42955088927257</v>
+        <v>10.4444856545334</v>
       </c>
       <c r="F19">
-        <v>41.51487243442794</v>
+        <v>41.48927094018443</v>
       </c>
       <c r="G19">
-        <v>32.54875456207865</v>
+        <v>31.79627874051168</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>32.57101606592938</v>
       </c>
       <c r="I19">
-        <v>11.16816048971331</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>18.83370273019222</v>
+        <v>11.14972717935588</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.83113395060835</v>
       </c>
       <c r="L19">
-        <v>18.32403334252576</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>18.32927502912299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.13645438347967</v>
+        <v>22.1337519128158</v>
       </c>
       <c r="C20">
-        <v>14.31866869225593</v>
+        <v>14.31585725755431</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.6350956382362</v>
+        <v>10.65035718891162</v>
       </c>
       <c r="F20">
-        <v>42.38995858336484</v>
+        <v>42.36385364668229</v>
       </c>
       <c r="G20">
-        <v>33.0702924767919</v>
+        <v>32.38374029887287</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>33.09272846187184</v>
       </c>
       <c r="I20">
-        <v>11.20040060726364</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>19.21605630980002</v>
+        <v>11.18141172149511</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.21334240030985</v>
       </c>
       <c r="L20">
-        <v>18.6782401994998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>18.68354290356229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.62956495470399</v>
+        <v>23.62636826390997</v>
       </c>
       <c r="C21">
-        <v>15.24034061263326</v>
+        <v>15.2370177566364</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.30639435575286</v>
+        <v>11.32271709962098</v>
       </c>
       <c r="F21">
-        <v>45.26774331834373</v>
+        <v>45.23996576116197</v>
       </c>
       <c r="G21">
-        <v>34.82277140295889</v>
+        <v>34.34288034675988</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>34.84589441865359</v>
       </c>
       <c r="I21">
-        <v>11.32228417704611</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>20.46856428660298</v>
+        <v>11.30142992308259</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.46535118212794</v>
       </c>
       <c r="L21">
-        <v>19.83855762207944</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>19.8440406926383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.57742396049211</v>
+        <v>24.57388773942069</v>
       </c>
       <c r="C22">
-        <v>15.82720656986305</v>
+        <v>15.82354065726295</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.73120122235969</v>
+        <v>11.74819100094467</v>
       </c>
       <c r="F22">
-        <v>47.10430595975439</v>
+        <v>47.07544464270403</v>
       </c>
       <c r="G22">
-        <v>35.96925234068319</v>
+        <v>35.61366932337085</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>35.99289655386026</v>
       </c>
       <c r="I22">
-        <v>11.41308974357945</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>21.26444580547038</v>
+        <v>11.39101810719992</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.26089477783905</v>
       </c>
       <c r="L22">
-        <v>20.57569748011968</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>20.58127849491802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.07399138946435</v>
+        <v>24.0706381160436</v>
       </c>
       <c r="C23">
-        <v>15.51533438058917</v>
+        <v>15.51185257118528</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.50571658928392</v>
+        <v>11.52235272857614</v>
       </c>
       <c r="F23">
-        <v>46.12798544348198</v>
+        <v>46.09970201842927</v>
       </c>
       <c r="G23">
-        <v>35.35716945449343</v>
+        <v>34.93620498716192</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>35.38052908039891</v>
       </c>
       <c r="I23">
-        <v>11.36353445764951</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>20.84166023484131</v>
+        <v>11.34211235242092</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.83829084283933</v>
       </c>
       <c r="L23">
-        <v>20.18414273530981</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>20.18967341088304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.11155630357576</v>
+        <v>22.10886167744172</v>
       </c>
       <c r="C24">
-        <v>14.30332825236709</v>
+        <v>14.30052506993665</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.62388182957477</v>
+        <v>10.63912557531147</v>
       </c>
       <c r="F24">
-        <v>42.34214289499612</v>
+        <v>42.31606552309549</v>
       </c>
       <c r="G24">
-        <v>33.04165331306518</v>
+        <v>32.35153744067703</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>33.06407932982643</v>
       </c>
       <c r="I24">
-        <v>11.19858162081075</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>19.1951832054661</v>
+        <v>11.17962324173051</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.19247730224111</v>
       </c>
       <c r="L24">
-        <v>18.65890318245684</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>18.6642026248434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.86533304574311</v>
+        <v>19.86329702754546</v>
       </c>
       <c r="C25">
-        <v>12.92327776848237</v>
+        <v>12.92118666794698</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.610022035778442</v>
+        <v>9.623644253196009</v>
       </c>
       <c r="F25">
-        <v>38.1098520605759</v>
+        <v>38.08629325526555</v>
       </c>
       <c r="G25">
-        <v>30.54356426850004</v>
+        <v>29.51511032048165</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>30.56531209799181</v>
       </c>
       <c r="I25">
-        <v>11.06202437840492</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>17.31394018077005</v>
+        <v>11.04572603631041</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.31191853126775</v>
       </c>
       <c r="L25">
-        <v>16.9165899711319</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>16.9215638883589</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.0892988930829</v>
+        <v>21.23434184932695</v>
       </c>
       <c r="C2">
-        <v>11.8371875704814</v>
+        <v>12.97037091038651</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.819080659739333</v>
+        <v>7.010010374504382</v>
       </c>
       <c r="F2">
-        <v>34.96430087693633</v>
+        <v>39.80354131230911</v>
       </c>
       <c r="G2">
-        <v>27.38138766834689</v>
+        <v>2.120047130351378</v>
       </c>
       <c r="H2">
-        <v>28.7233473304591</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.97636300563194</v>
+        <v>6.620539958345074</v>
       </c>
       <c r="K2">
-        <v>15.82916732829367</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.859539364099272</v>
       </c>
       <c r="M2">
-        <v>15.54912702513515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.45938184079178</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>31.84870906900121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.80777701387742</v>
+        <v>19.91519559735425</v>
       </c>
       <c r="C3">
-        <v>11.05751599829075</v>
+        <v>12.13919778676561</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.237134524717096</v>
+        <v>6.947003834348971</v>
       </c>
       <c r="F3">
-        <v>32.75814805849981</v>
+        <v>38.61975419065966</v>
       </c>
       <c r="G3">
-        <v>25.90813470085811</v>
+        <v>2.13101087973779</v>
       </c>
       <c r="H3">
-        <v>27.47502568725156</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.94478941544137</v>
+        <v>6.693892209178531</v>
       </c>
       <c r="K3">
-        <v>14.7599224567935</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.820067226947658</v>
       </c>
       <c r="M3">
-        <v>14.56103751125746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.99737171336339</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>30.90632203881875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.98061504728933</v>
+        <v>19.07653994883246</v>
       </c>
       <c r="C4">
-        <v>10.55594446919067</v>
+        <v>11.60518379140534</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.861386442094971</v>
+        <v>6.909279541120396</v>
       </c>
       <c r="F4">
-        <v>31.36008631382943</v>
+        <v>37.90828720844559</v>
       </c>
       <c r="G4">
-        <v>24.99132496292497</v>
+        <v>2.137894761846767</v>
       </c>
       <c r="H4">
-        <v>26.70961612693188</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.932178894338</v>
+        <v>6.739856190447078</v>
       </c>
       <c r="K4">
-        <v>14.07075419068683</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.7980546767803</v>
       </c>
       <c r="M4">
-        <v>13.92519013799107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.71343462727403</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>30.34245729694072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.6332398775304</v>
+        <v>18.72777007653563</v>
       </c>
       <c r="C5">
-        <v>10.3457263409183</v>
+        <v>11.38155488893366</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.703589782259932</v>
+        <v>6.894112447047364</v>
       </c>
       <c r="F5">
-        <v>30.77973006710075</v>
+        <v>37.62237966944714</v>
       </c>
       <c r="G5">
-        <v>24.61491908145264</v>
+        <v>2.14074085326118</v>
       </c>
       <c r="H5">
-        <v>26.39819729563011</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.92862761317428</v>
+        <v>6.758828835161055</v>
       </c>
       <c r="K5">
-        <v>13.781586802496</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.789643268116929</v>
       </c>
       <c r="M5">
-        <v>13.65868469988964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.59780681252418</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>30.11645640322454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.57493174026066</v>
+        <v>18.66944117873949</v>
       </c>
       <c r="C6">
-        <v>10.31046605182139</v>
+        <v>11.34405681271232</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.677104249084519</v>
+        <v>6.891605404863325</v>
       </c>
       <c r="F6">
-        <v>30.6827312586325</v>
+        <v>37.57515249683158</v>
       </c>
       <c r="G6">
-        <v>24.55225786925052</v>
+        <v>2.141215984551503</v>
       </c>
       <c r="H6">
-        <v>26.34652362695682</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.92813054796081</v>
+        <v>6.761994105105185</v>
       </c>
       <c r="K6">
-        <v>13.73306479821808</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.788280302360336</v>
       </c>
       <c r="M6">
-        <v>13.61398379771778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.57861621060175</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>30.07915941808053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.97597214078911</v>
+        <v>19.07186437572988</v>
       </c>
       <c r="C7">
-        <v>10.55313306625373</v>
+        <v>11.60219227201205</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.859277325352666</v>
+        <v>6.909074204094259</v>
       </c>
       <c r="F7">
-        <v>31.35230199912369</v>
+        <v>37.90441486718611</v>
       </c>
       <c r="G7">
-        <v>24.98625952548698</v>
+        <v>2.137932976510136</v>
       </c>
       <c r="H7">
-        <v>26.70541390050013</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.93212472083406</v>
+        <v>6.740111070548006</v>
       </c>
       <c r="K7">
-        <v>14.06688823235689</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.797938975200873</v>
       </c>
       <c r="M7">
-        <v>13.92162595038553</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.7118747076063</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>30.3393939773658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.65569204243309</v>
+        <v>20.78555491406148</v>
       </c>
       <c r="C8">
-        <v>11.57304790892758</v>
+        <v>12.68865221725151</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.622223660429034</v>
+        <v>6.988063285651427</v>
       </c>
       <c r="F8">
-        <v>34.21278194988446</v>
+        <v>39.39226531751198</v>
       </c>
       <c r="G8">
-        <v>26.87608639107657</v>
+        <v>2.123797498653877</v>
       </c>
       <c r="H8">
-        <v>28.29282308126682</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.96399792116834</v>
+        <v>6.645645435432114</v>
       </c>
       <c r="K8">
-        <v>15.46719324545119</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.845467805848418</v>
       </c>
       <c r="M8">
-        <v>15.21444232182894</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.30021612464737</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>31.52074541312375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.63787717531347</v>
+        <v>24.00166244798703</v>
       </c>
       <c r="C9">
-        <v>13.39609061365323</v>
+        <v>14.6351581005631</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.974367583690279</v>
+        <v>7.152418632393235</v>
       </c>
       <c r="F9">
-        <v>39.50302710202214</v>
+        <v>42.42650569143386</v>
       </c>
       <c r="G9">
-        <v>30.47753270561272</v>
+        <v>2.097155165725358</v>
       </c>
       <c r="H9">
-        <v>31.40737307765774</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.08589195987225</v>
+        <v>6.467303313447211</v>
       </c>
       <c r="K9">
-        <v>17.96016398091145</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.956324670018621</v>
       </c>
       <c r="M9">
-        <v>17.52210865350729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.44652239584759</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>33.95258856875813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.65104734527716</v>
+        <v>26.33097240115831</v>
       </c>
       <c r="C10">
-        <v>14.63472012320607</v>
+        <v>15.95971340094711</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.88364556477476</v>
+        <v>7.281836084497635</v>
       </c>
       <c r="F10">
-        <v>43.35836352342947</v>
+        <v>44.7222181771109</v>
       </c>
       <c r="G10">
-        <v>33.05655683086947</v>
+        <v>2.078036772990379</v>
       </c>
       <c r="H10">
-        <v>33.6925861670202</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.2201447371165</v>
+        <v>6.339849567067462</v>
       </c>
       <c r="K10">
-        <v>19.6470801007611</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.048565783720897</v>
       </c>
       <c r="M10">
-        <v>19.08558839777725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.2786007816175</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>35.80917994116224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.53131275788847</v>
+        <v>27.35026050984031</v>
       </c>
       <c r="C11">
-        <v>15.17825364283754</v>
+        <v>16.54123781390333</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.27997234929307</v>
+        <v>7.343358680769839</v>
       </c>
       <c r="F11">
-        <v>45.05622596788862</v>
+        <v>45.78104292429037</v>
       </c>
       <c r="G11">
-        <v>34.21652291888573</v>
+        <v>2.06938693220422</v>
       </c>
       <c r="H11">
-        <v>34.73224613455412</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.29302563136945</v>
+        <v>6.282499592008128</v>
       </c>
       <c r="K11">
-        <v>20.38557413139989</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.092887373512725</v>
       </c>
       <c r="M11">
-        <v>19.77010032066098</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>14.65424317586255</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>36.66974339455017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.85982113138868</v>
+        <v>27.73069086454253</v>
       </c>
       <c r="C12">
-        <v>15.38139894383387</v>
+        <v>16.75860829428611</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.42765080305876</v>
+        <v>7.367112104378472</v>
       </c>
       <c r="F12">
-        <v>45.69153812861517</v>
+        <v>46.1841568967648</v>
       </c>
       <c r="G12">
-        <v>34.65409549947189</v>
+        <v>2.066113348216676</v>
       </c>
       <c r="H12">
-        <v>35.12612452611068</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.32251843467048</v>
+        <v>6.260861130270453</v>
       </c>
       <c r="K12">
-        <v>20.66130578868658</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.110012158012197</v>
       </c>
       <c r="M12">
-        <v>20.02565221553403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14.82083642331586</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>36.99804836698279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.78928091328948</v>
+        <v>27.64900093816122</v>
       </c>
       <c r="C13">
-        <v>15.33776386256676</v>
+        <v>16.71191677764253</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.39595093577089</v>
+        <v>7.361974773858647</v>
       </c>
       <c r="F13">
-        <v>45.55504417839906</v>
+        <v>46.09724101113013</v>
       </c>
       <c r="G13">
-        <v>34.55992654445598</v>
+        <v>2.066818371849316</v>
       </c>
       <c r="H13">
-        <v>35.04128400633572</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.31607902001923</v>
+        <v>6.265518047952175</v>
       </c>
       <c r="K13">
-        <v>20.60209231446564</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.106308817183254</v>
       </c>
       <c r="M13">
-        <v>19.97077398624288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14.77806164143298</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>36.92723125431358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.5584343918167</v>
+        <v>27.38166845435094</v>
       </c>
       <c r="C14">
-        <v>15.19501905771528</v>
+        <v>16.55917678864077</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.29216954746458</v>
+        <v>7.345303276581003</v>
       </c>
       <c r="F14">
-        <v>45.10864374775579</v>
+        <v>45.81416336229393</v>
       </c>
       <c r="G14">
-        <v>34.25255433261354</v>
+        <v>2.069117604060625</v>
       </c>
       <c r="H14">
-        <v>34.76464580963456</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.29541285425003</v>
+        <v>6.280717872947942</v>
       </c>
       <c r="K14">
-        <v>20.40833584844565</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.094289388847393</v>
       </c>
       <c r="M14">
-        <v>19.79119688074976</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14.66591868181669</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>36.69670360169798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.4164142555079</v>
+        <v>27.21720458147241</v>
       </c>
       <c r="C15">
-        <v>15.1072408394608</v>
+        <v>16.46525516078734</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.22829040812229</v>
+        <v>7.335153329084012</v>
       </c>
       <c r="F15">
-        <v>44.83423051301611</v>
+        <v>45.64105494909282</v>
       </c>
       <c r="G15">
-        <v>34.06406938021121</v>
+        <v>2.070526045489433</v>
       </c>
       <c r="H15">
-        <v>34.59522716537452</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.28300712883831</v>
+        <v>6.290038104991378</v>
       </c>
       <c r="K15">
-        <v>20.28915141087987</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.086971639956533</v>
       </c>
       <c r="M15">
-        <v>19.68073030979971</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14.60484626468442</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>36.55581994002974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.59282813932789</v>
+        <v>26.26356825931922</v>
       </c>
       <c r="C16">
-        <v>14.5988132946788</v>
+        <v>15.92130138935609</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.85740360100566</v>
+        <v>7.277874930181071</v>
       </c>
       <c r="F16">
-        <v>43.24631180666048</v>
+        <v>44.65331796089118</v>
       </c>
       <c r="G16">
-        <v>32.98050056706867</v>
+        <v>2.078602608431459</v>
       </c>
       <c r="H16">
-        <v>33.62465615597308</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.21563572565355</v>
+        <v>6.343609185482582</v>
       </c>
       <c r="K16">
-        <v>19.59825576344622</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.045716887924852</v>
       </c>
       <c r="M16">
-        <v>19.04033137578379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.25399098613306</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>35.75327141286122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.07867306050703</v>
+        <v>25.66837795886401</v>
       </c>
       <c r="C17">
-        <v>14.28193038483991</v>
+        <v>15.58234054761967</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.62550228859195</v>
+        <v>7.243465228696714</v>
       </c>
       <c r="F17">
-        <v>42.25811276841276</v>
+        <v>44.05111678740644</v>
       </c>
       <c r="G17">
-        <v>32.31250084087196</v>
+        <v>2.083566137525431</v>
       </c>
       <c r="H17">
-        <v>33.0293583148444</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.17746325115824</v>
+        <v>6.376626196295984</v>
       </c>
       <c r="K17">
-        <v>19.16717123361861</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.021013950381241</v>
       </c>
       <c r="M17">
-        <v>18.64074597790247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.03798944314687</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>35.26510116588553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.77958126429387</v>
+        <v>25.32222738287302</v>
       </c>
       <c r="C18">
-        <v>14.0977796235788</v>
+        <v>15.38538799311629</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.49048386346473</v>
+        <v>7.223918004448711</v>
       </c>
       <c r="F18">
-        <v>41.68443067867634</v>
+        <v>43.70610212218249</v>
       </c>
       <c r="G18">
-        <v>31.92701891524059</v>
+        <v>2.086425797144888</v>
       </c>
       <c r="H18">
-        <v>32.68695310625355</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.1566060369751</v>
+        <v>6.395676668619011</v>
       </c>
       <c r="K18">
-        <v>18.91648757563603</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.007027516078307</v>
       </c>
       <c r="M18">
-        <v>18.40838711030565</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>13.91348045386876</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>34.985812349966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.67772821503529</v>
+        <v>25.20436500054764</v>
       </c>
       <c r="C19">
-        <v>14.03509981171797</v>
+        <v>15.31835611713506</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.4444856545334</v>
+        <v>7.217339502291218</v>
       </c>
       <c r="F19">
-        <v>41.48927094018443</v>
+        <v>43.58951776354198</v>
       </c>
       <c r="G19">
-        <v>31.79627874051168</v>
+        <v>2.087394986250414</v>
       </c>
       <c r="H19">
-        <v>32.57101606592938</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.14972717935588</v>
+        <v>6.402137484919514</v>
       </c>
       <c r="K19">
-        <v>18.83113395060835</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.0023300501402</v>
       </c>
       <c r="M19">
-        <v>18.32927502912299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13.87127860406477</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>34.89150363159103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.1337519128158</v>
+        <v>25.73212993554331</v>
       </c>
       <c r="C20">
-        <v>14.31585725755431</v>
+        <v>15.61862835707254</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.65035718891162</v>
+        <v>7.247102404518506</v>
       </c>
       <c r="F20">
-        <v>42.36385364668229</v>
+        <v>44.11508152214675</v>
       </c>
       <c r="G20">
-        <v>32.38374029887287</v>
+        <v>2.083037301107683</v>
       </c>
       <c r="H20">
-        <v>33.09272846187184</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.18141172149511</v>
+        <v>6.373105358059446</v>
       </c>
       <c r="K20">
-        <v>19.21334240030985</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.023620630717343</v>
       </c>
       <c r="M20">
-        <v>18.68354290356229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.06101145829725</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>35.31691239220842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.62636826390997</v>
+        <v>27.46033899368573</v>
       </c>
       <c r="C21">
-        <v>15.2370177566364</v>
+        <v>16.60411571139532</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.32271709962098</v>
+        <v>7.350187064614394</v>
       </c>
       <c r="F21">
-        <v>45.23996576116197</v>
+        <v>45.89725053099906</v>
       </c>
       <c r="G21">
-        <v>34.34288034675988</v>
+        <v>2.068442253552798</v>
       </c>
       <c r="H21">
-        <v>34.84589441865359</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.30142992308259</v>
+        <v>6.276251273906571</v>
       </c>
       <c r="K21">
-        <v>20.46535118212794</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.097810508336379</v>
       </c>
       <c r="M21">
-        <v>19.8440406926383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14.69518897377198</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>36.76434790234048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.57388773942069</v>
+        <v>28.55760697238857</v>
       </c>
       <c r="C22">
-        <v>15.82354065726295</v>
+        <v>17.2317395951009</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.74819100094467</v>
+        <v>7.420261108300368</v>
       </c>
       <c r="F22">
-        <v>47.07544464270403</v>
+        <v>47.07468223983888</v>
       </c>
       <c r="G22">
-        <v>35.61366932337085</v>
+        <v>2.058912021476376</v>
       </c>
       <c r="H22">
-        <v>35.99289655386026</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.39101810719992</v>
+        <v>6.213404872466528</v>
       </c>
       <c r="K22">
-        <v>21.26089477783905</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.148288070252533</v>
       </c>
       <c r="M22">
-        <v>20.58127849491802</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15.25337761841943</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>37.72459404834732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.0706381160436</v>
+        <v>27.97482987831393</v>
       </c>
       <c r="C23">
-        <v>15.51185257118528</v>
+        <v>16.89820209035421</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.52235272857614</v>
+        <v>7.38258612899023</v>
       </c>
       <c r="F23">
-        <v>46.09970201842927</v>
+        <v>46.44505936033176</v>
       </c>
       <c r="G23">
-        <v>34.93620498716192</v>
+        <v>2.063999488003898</v>
       </c>
       <c r="H23">
-        <v>35.38052908039891</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.34211235242092</v>
+        <v>6.24690962602974</v>
       </c>
       <c r="K23">
-        <v>20.83829084283933</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.121164279643818</v>
       </c>
       <c r="M23">
-        <v>20.18967341088304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>14.9486252033175</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>37.21072712076203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.10886167744172</v>
+        <v>25.70332004367634</v>
       </c>
       <c r="C24">
-        <v>14.30052506993665</v>
+        <v>15.60222912888182</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.63912557531147</v>
+        <v>7.245457309711302</v>
       </c>
       <c r="F24">
-        <v>42.31606552309549</v>
+        <v>44.08615933625942</v>
       </c>
       <c r="G24">
-        <v>32.35153744067703</v>
+        <v>2.083276368815221</v>
       </c>
       <c r="H24">
-        <v>33.06407932982643</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.17962324173051</v>
+        <v>6.374696914617031</v>
       </c>
       <c r="K24">
-        <v>19.19247730224111</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.022441479058736</v>
       </c>
       <c r="M24">
-        <v>18.6642026248434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.05060422090523</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>35.29348428846757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.86329702754546</v>
+        <v>23.10668672431861</v>
       </c>
       <c r="C25">
-        <v>12.92118666794698</v>
+        <v>14.1276675106804</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.623644253196009</v>
+        <v>7.106666738845813</v>
       </c>
       <c r="F25">
-        <v>38.08629325526555</v>
+        <v>41.59381069306419</v>
       </c>
       <c r="G25">
-        <v>29.51511032048165</v>
+        <v>2.104266744738268</v>
       </c>
       <c r="H25">
-        <v>30.56531209799181</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.04572603631041</v>
+        <v>6.514874508585948</v>
       </c>
       <c r="K25">
-        <v>17.31191853126775</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.924442272453052</v>
       </c>
       <c r="M25">
-        <v>16.9215638883589</v>
+        <v>13.13787344505956</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>33.28253327496002</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.23434184932695</v>
+        <v>13.41379229500739</v>
       </c>
       <c r="C2">
-        <v>12.97037091038651</v>
+        <v>7.169488660864801</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.010010374504382</v>
+        <v>9.566841884716766</v>
       </c>
       <c r="F2">
-        <v>39.80354131230911</v>
+        <v>28.17155083370567</v>
       </c>
       <c r="G2">
-        <v>2.120047130351378</v>
+        <v>2.11735167984083</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.620539958345074</v>
+        <v>5.966078525075841</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.18214005392859</v>
       </c>
       <c r="L2">
-        <v>5.859539364099272</v>
+        <v>7.450425310760431</v>
       </c>
       <c r="M2">
-        <v>12.45938184079178</v>
+        <v>10.82367715878581</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.85111324729225</v>
       </c>
       <c r="O2">
-        <v>31.84870906900121</v>
+        <v>17.69759696643415</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.91519559735425</v>
+        <v>12.63293396610555</v>
       </c>
       <c r="C3">
-        <v>12.13919778676561</v>
+        <v>7.188070058671943</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.947003834348971</v>
+        <v>9.465040112859208</v>
       </c>
       <c r="F3">
-        <v>38.61975419065966</v>
+        <v>27.7476819315781</v>
       </c>
       <c r="G3">
-        <v>2.13101087973779</v>
+        <v>2.121804004304661</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.693892209178531</v>
+        <v>5.94151330604369</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.578081747378214</v>
       </c>
       <c r="L3">
-        <v>5.820067226947658</v>
+        <v>7.303731055108935</v>
       </c>
       <c r="M3">
-        <v>11.99737171336339</v>
+        <v>10.48236342236522</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>14.05216730028128</v>
       </c>
       <c r="O3">
-        <v>30.90632203881875</v>
+        <v>17.75540881183584</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.07653994883246</v>
+        <v>12.13235993784346</v>
       </c>
       <c r="C4">
-        <v>11.60518379140534</v>
+        <v>7.200353134257571</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.909279541120396</v>
+        <v>9.40589668037402</v>
       </c>
       <c r="F4">
-        <v>37.90828720844559</v>
+        <v>27.50333309603425</v>
       </c>
       <c r="G4">
-        <v>2.137894761846767</v>
+        <v>2.124626607812514</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.739856190447078</v>
+        <v>5.926390877965637</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.18716351913001</v>
       </c>
       <c r="L4">
-        <v>5.7980546767803</v>
+        <v>7.214898030280093</v>
       </c>
       <c r="M4">
-        <v>11.71343462727403</v>
+        <v>10.27103484559635</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>14.17847631827644</v>
       </c>
       <c r="O4">
-        <v>30.34245729694072</v>
+        <v>17.80260878559523</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.72777007653563</v>
+        <v>11.92322755035061</v>
       </c>
       <c r="C5">
-        <v>11.38155488893366</v>
+        <v>7.205576223972825</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.894112447047364</v>
+        <v>9.382651384984031</v>
       </c>
       <c r="F5">
-        <v>37.62237966944714</v>
+        <v>27.40778565690639</v>
       </c>
       <c r="G5">
-        <v>2.14074085326118</v>
+        <v>2.125799616251109</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.758828835161055</v>
+        <v>5.92021938462703</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.02285426796559</v>
       </c>
       <c r="L5">
-        <v>5.789643268116929</v>
+        <v>7.179049356919553</v>
       </c>
       <c r="M5">
-        <v>11.59780681252418</v>
+        <v>10.18460025858143</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>14.23068791336179</v>
       </c>
       <c r="O5">
-        <v>30.11645640322454</v>
+        <v>17.82468347705114</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.66944117873949</v>
+        <v>11.88819622585338</v>
       </c>
       <c r="C6">
-        <v>11.34405681271232</v>
+        <v>7.206456599534913</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.891605404863325</v>
+        <v>9.378843498881636</v>
       </c>
       <c r="F6">
-        <v>37.57515249683158</v>
+        <v>27.39216381518408</v>
       </c>
       <c r="G6">
-        <v>2.141215984551503</v>
+        <v>2.125995781225772</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.761994105105185</v>
+        <v>5.919194095792699</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>8.995269508107018</v>
       </c>
       <c r="L6">
-        <v>5.788280302360336</v>
+        <v>7.173119117044688</v>
       </c>
       <c r="M6">
-        <v>11.57861621060175</v>
+        <v>10.1702326011386</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>14.23940285752937</v>
       </c>
       <c r="O6">
-        <v>30.07915941808053</v>
+        <v>17.82851754957065</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.07186437572988</v>
+        <v>12.12956008529281</v>
       </c>
       <c r="C7">
-        <v>11.60219227201205</v>
+        <v>7.200422696163214</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.909074204094259</v>
+        <v>9.405579707280578</v>
       </c>
       <c r="F7">
-        <v>37.90441486718611</v>
+        <v>27.50202817979297</v>
       </c>
       <c r="G7">
-        <v>2.137932976510136</v>
+        <v>2.124642334642551</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.740111070548006</v>
+        <v>5.926307682261061</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.184967813593774</v>
       </c>
       <c r="L7">
-        <v>5.797938975200873</v>
+        <v>7.214413086142144</v>
       </c>
       <c r="M7">
-        <v>11.7118747076063</v>
+        <v>10.26987026687078</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>14.17917744113882</v>
       </c>
       <c r="O7">
-        <v>30.3393939773658</v>
+        <v>17.80289512632664</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.78555491406148</v>
+        <v>13.14902549406994</v>
       </c>
       <c r="C8">
-        <v>12.68865221725151</v>
+        <v>7.175712777708856</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.988063285651427</v>
+        <v>9.531049347604762</v>
       </c>
       <c r="F8">
-        <v>39.39226531751198</v>
+        <v>28.02211836691362</v>
       </c>
       <c r="G8">
-        <v>2.123797498653877</v>
+        <v>2.11886866344177</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.645645435432114</v>
+        <v>5.957617137600523</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>9.97803001712934</v>
       </c>
       <c r="L8">
-        <v>5.845467805848418</v>
+        <v>7.399612314416991</v>
       </c>
       <c r="M8">
-        <v>12.30021612464737</v>
+        <v>10.70643059734052</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.91985533749099</v>
       </c>
       <c r="O8">
-        <v>31.52074541312375</v>
+        <v>17.71503920055784</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.00166244798703</v>
+        <v>14.97502160873184</v>
       </c>
       <c r="C9">
-        <v>14.6351581005631</v>
+        <v>7.134297749273672</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.152418632393235</v>
+        <v>9.803251271101921</v>
       </c>
       <c r="F9">
-        <v>42.42650569143386</v>
+        <v>29.16657927441541</v>
       </c>
       <c r="G9">
-        <v>2.097155165725358</v>
+        <v>2.108231135974293</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.467303313447211</v>
+        <v>6.01866377032384</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.37368056213067</v>
       </c>
       <c r="L9">
-        <v>5.956324670018621</v>
+        <v>7.770863197337345</v>
       </c>
       <c r="M9">
-        <v>13.44652239584759</v>
+        <v>11.54347990132215</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>13.43306100353434</v>
       </c>
       <c r="O9">
-        <v>33.95258856875813</v>
+        <v>17.64029562379768</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.33097240115831</v>
+        <v>16.20563151256695</v>
       </c>
       <c r="C10">
-        <v>15.95971340094711</v>
+        <v>7.108325343360504</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.281836084497635</v>
+        <v>10.01839490082487</v>
       </c>
       <c r="F10">
-        <v>44.7222181771109</v>
+        <v>30.08059918391094</v>
       </c>
       <c r="G10">
-        <v>2.078036772990379</v>
+        <v>2.100803184751348</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.339849567067462</v>
+        <v>6.063247897540793</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.30159730469815</v>
       </c>
       <c r="L10">
-        <v>6.048565783720897</v>
+        <v>8.046280671321535</v>
       </c>
       <c r="M10">
-        <v>14.2786007816175</v>
+        <v>12.14077016281214</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>13.08724130323018</v>
       </c>
       <c r="O10">
-        <v>35.80917994116224</v>
+        <v>17.65137855232865</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.35026050984031</v>
+        <v>16.78397596377981</v>
       </c>
       <c r="C11">
-        <v>16.54123781390333</v>
+        <v>7.097518194936665</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.343358680769839</v>
+        <v>10.11937395028684</v>
       </c>
       <c r="F11">
-        <v>45.78104292429037</v>
+        <v>30.51160294844967</v>
       </c>
       <c r="G11">
-        <v>2.06938693220422</v>
+        <v>2.097501183668351</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.282499592008128</v>
+        <v>6.083460429697371</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.70267474601216</v>
       </c>
       <c r="L11">
-        <v>6.092887373512725</v>
+        <v>8.171704445529087</v>
       </c>
       <c r="M11">
-        <v>14.65424317586255</v>
+        <v>12.40757589708568</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.93215483641462</v>
       </c>
       <c r="O11">
-        <v>36.66974339455017</v>
+        <v>17.6721827341371</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.73069086454253</v>
+        <v>17.00049420478991</v>
       </c>
       <c r="C12">
-        <v>16.75860829428611</v>
+        <v>7.093574608026761</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.367112104378472</v>
+        <v>10.15804252542864</v>
       </c>
       <c r="F12">
-        <v>46.1841568967648</v>
+        <v>30.67693696008621</v>
       </c>
       <c r="G12">
-        <v>2.066113348216676</v>
+        <v>2.096261273481071</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.260861130270453</v>
+        <v>6.091103311907456</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.85154274633415</v>
       </c>
       <c r="L12">
-        <v>6.110012158012197</v>
+        <v>8.219183899262889</v>
       </c>
       <c r="M12">
-        <v>14.82083642331586</v>
+        <v>12.50782725552648</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.87371930645219</v>
       </c>
       <c r="O12">
-        <v>36.99804836698279</v>
+        <v>17.68244649907004</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.64900093816122</v>
+        <v>16.9540660854549</v>
       </c>
       <c r="C13">
-        <v>16.71191677764253</v>
+        <v>7.094417243413831</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.361974773858647</v>
+        <v>10.14969570410499</v>
       </c>
       <c r="F13">
-        <v>46.09724101113013</v>
+        <v>30.64123596432735</v>
       </c>
       <c r="G13">
-        <v>2.066818371849316</v>
+        <v>2.096527853689245</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.265518047952175</v>
+        <v>6.089457797282698</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.81961501834843</v>
       </c>
       <c r="L13">
-        <v>6.106308817183254</v>
+        <v>8.208959585835407</v>
       </c>
       <c r="M13">
-        <v>14.77806164143298</v>
+        <v>12.48627223510996</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.88629190692554</v>
       </c>
       <c r="O13">
-        <v>36.92723125431358</v>
+        <v>17.68012800551523</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.38166845435094</v>
+        <v>16.80188057691383</v>
       </c>
       <c r="C14">
-        <v>16.55917678864077</v>
+        <v>7.097190746714698</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.345303276581003</v>
+        <v>10.12254671747672</v>
       </c>
       <c r="F14">
-        <v>45.81416336229393</v>
+        <v>30.5251629149664</v>
       </c>
       <c r="G14">
-        <v>2.069117604060625</v>
+        <v>2.097398968846996</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.280717872947942</v>
+        <v>6.084089445249416</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.71498246157082</v>
       </c>
       <c r="L14">
-        <v>6.094289388847393</v>
+        <v>8.175611118189373</v>
       </c>
       <c r="M14">
-        <v>14.66591868181669</v>
+        <v>12.41583971683971</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.92734161816507</v>
       </c>
       <c r="O14">
-        <v>36.69670360169798</v>
+        <v>17.67297864284402</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.21720458147241</v>
+        <v>16.70806745212154</v>
       </c>
       <c r="C15">
-        <v>16.46525516078734</v>
+        <v>7.098909104738444</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.335153329084012</v>
+        <v>10.10597266958967</v>
       </c>
       <c r="F15">
-        <v>45.64105494909282</v>
+        <v>30.45433927544505</v>
       </c>
       <c r="G15">
-        <v>2.070526045489433</v>
+        <v>2.097933899581684</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.290038104991378</v>
+        <v>6.080799683004858</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.65050032649396</v>
       </c>
       <c r="L15">
-        <v>6.086971639956533</v>
+        <v>8.155181158515402</v>
       </c>
       <c r="M15">
-        <v>14.60484626468442</v>
+        <v>12.37259379518408</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.95252296081978</v>
       </c>
       <c r="O15">
-        <v>36.55581994002974</v>
+        <v>17.66891368501446</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.26356825931922</v>
+        <v>16.17016156217076</v>
       </c>
       <c r="C16">
-        <v>15.92130138935609</v>
+        <v>7.109052222379297</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.277874930181071</v>
+        <v>10.01185678810154</v>
       </c>
       <c r="F16">
-        <v>44.65331796089118</v>
+        <v>30.05273259277511</v>
       </c>
       <c r="G16">
-        <v>2.078602608431459</v>
+        <v>2.101020478435318</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.343609185482582</v>
+        <v>6.061925467252512</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.27496370003949</v>
       </c>
       <c r="L16">
-        <v>6.045716887924852</v>
+        <v>8.038083581097991</v>
       </c>
       <c r="M16">
-        <v>14.25399098613306</v>
+        <v>12.12322827814064</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>13.09741904785123</v>
       </c>
       <c r="O16">
-        <v>35.75327141286122</v>
+        <v>17.65034628727613</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.66837795886401</v>
+        <v>15.85654312392444</v>
       </c>
       <c r="C17">
-        <v>15.58234054761967</v>
+        <v>7.115535494596532</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.243465228696714</v>
+        <v>9.954903958382895</v>
       </c>
       <c r="F17">
-        <v>44.05111678740644</v>
+        <v>29.81020957608865</v>
       </c>
       <c r="G17">
-        <v>2.083566137525431</v>
+        <v>2.102933310984822</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.376626196295984</v>
+        <v>6.050328202744775</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.03920433714686</v>
       </c>
       <c r="L17">
-        <v>6.021013950381241</v>
+        <v>7.966256739357938</v>
       </c>
       <c r="M17">
-        <v>14.03798944314687</v>
+        <v>11.96893642806499</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>13.18685941761856</v>
       </c>
       <c r="O17">
-        <v>35.26510116588553</v>
+        <v>17.64307734585789</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.32222738287302</v>
+        <v>15.67383196867447</v>
       </c>
       <c r="C18">
-        <v>15.38538799311629</v>
+        <v>7.119359105832138</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.223918004448711</v>
+        <v>9.922439886425165</v>
       </c>
       <c r="F18">
-        <v>43.70610212218249</v>
+        <v>29.67215250641648</v>
       </c>
       <c r="G18">
-        <v>2.086425797144888</v>
+        <v>2.104040807474747</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.395676668619011</v>
+        <v>6.043651344347129</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.90162056936072</v>
       </c>
       <c r="L18">
-        <v>6.007027516078307</v>
+        <v>7.924958503569894</v>
       </c>
       <c r="M18">
-        <v>13.91348045386876</v>
+        <v>11.87973412820321</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>13.23851470324138</v>
       </c>
       <c r="O18">
-        <v>34.985812349966</v>
+        <v>17.6403728983502</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.20436500054764</v>
+        <v>15.6115708789768</v>
       </c>
       <c r="C19">
-        <v>15.31835611713506</v>
+        <v>7.120669850112557</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.217339502291218</v>
+        <v>9.911499069258937</v>
       </c>
       <c r="F19">
-        <v>43.58951776354198</v>
+        <v>29.62565733444043</v>
       </c>
       <c r="G19">
-        <v>2.087394986250414</v>
+        <v>2.104417055478212</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.402137484919514</v>
+        <v>6.041389609517691</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.85469645773242</v>
       </c>
       <c r="L19">
-        <v>6.0023300501402</v>
+        <v>7.910979262963691</v>
       </c>
       <c r="M19">
-        <v>13.87127860406477</v>
+        <v>11.84945566257061</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>13.25604145968333</v>
       </c>
       <c r="O19">
-        <v>34.89150363159103</v>
+        <v>17.63970718947717</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.73212993554331</v>
+        <v>15.89016937983519</v>
       </c>
       <c r="C20">
-        <v>15.61862835707254</v>
+        <v>7.114835520824959</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.247102404518506</v>
+        <v>9.960936412059835</v>
       </c>
       <c r="F20">
-        <v>44.11508152214675</v>
+        <v>29.83587844328725</v>
       </c>
       <c r="G20">
-        <v>2.083037301107683</v>
+        <v>2.102728936795712</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.373105358059446</v>
+        <v>6.051563424499742</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.06450628862864</v>
       </c>
       <c r="L20">
-        <v>6.023620630717343</v>
+        <v>7.973901574760482</v>
       </c>
       <c r="M20">
-        <v>14.06101145829725</v>
+        <v>11.98540901977469</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>13.17731664139546</v>
       </c>
       <c r="O20">
-        <v>35.31691239220842</v>
+        <v>17.64369747014991</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.46033899368573</v>
+        <v>16.84670508345336</v>
       </c>
       <c r="C21">
-        <v>16.60411571139532</v>
+        <v>7.096372028727512</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.350187064614394</v>
+        <v>10.13050949934375</v>
       </c>
       <c r="F21">
-        <v>45.89725053099906</v>
+        <v>30.55919930204742</v>
       </c>
       <c r="G21">
-        <v>2.068442253552798</v>
+        <v>2.097142821479327</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.276251273906571</v>
+        <v>6.085666573501908</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.74579717286473</v>
       </c>
       <c r="L21">
-        <v>6.097810508336379</v>
+        <v>8.185407068500488</v>
       </c>
       <c r="M21">
-        <v>14.69518897377198</v>
+        <v>12.43654924503466</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.9152766211351</v>
       </c>
       <c r="O21">
-        <v>36.76434790234048</v>
+        <v>17.67501288445014</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.55760697238857</v>
+        <v>17.46844750513924</v>
       </c>
       <c r="C22">
-        <v>17.2317395951009</v>
+        <v>7.085174765365646</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.420261108300368</v>
+        <v>10.2438337910336</v>
       </c>
       <c r="F22">
-        <v>47.07468223983888</v>
+        <v>31.04427212012448</v>
       </c>
       <c r="G22">
-        <v>2.058912021476376</v>
+        <v>2.093552794545722</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.213404872466528</v>
+        <v>6.107889266910594</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.17351754622266</v>
       </c>
       <c r="L22">
-        <v>6.148288070252533</v>
+        <v>8.32353152692261</v>
       </c>
       <c r="M22">
-        <v>15.25337761841943</v>
+        <v>12.72680780929313</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>12.74570807609777</v>
       </c>
       <c r="O22">
-        <v>37.72459404834732</v>
+        <v>17.70944064052345</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.97482987831393</v>
+        <v>17.13903678062072</v>
       </c>
       <c r="C23">
-        <v>16.89820209035421</v>
+        <v>7.091069978115773</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.38258612899023</v>
+        <v>10.18312751796397</v>
       </c>
       <c r="F23">
-        <v>46.44505936033176</v>
+        <v>30.78427167393746</v>
       </c>
       <c r="G23">
-        <v>2.063999488003898</v>
+        <v>2.095463497564234</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.24690962602974</v>
+        <v>6.096035029123123</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.94683451932976</v>
       </c>
       <c r="L23">
-        <v>6.121164279643818</v>
+        <v>8.249832618995306</v>
       </c>
       <c r="M23">
-        <v>14.9486252033175</v>
+        <v>12.57233389134337</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.8360651236289</v>
       </c>
       <c r="O23">
-        <v>37.21072712076203</v>
+        <v>17.68974889278468</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.70332004367634</v>
+        <v>15.87497444638626</v>
       </c>
       <c r="C24">
-        <v>15.60222912888182</v>
+        <v>7.115151679331571</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.245457309711302</v>
+        <v>9.95820826984186</v>
       </c>
       <c r="F24">
-        <v>44.08615933625942</v>
+        <v>29.82426926797999</v>
       </c>
       <c r="G24">
-        <v>2.083276368815221</v>
+        <v>2.102821310078443</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.374696914617031</v>
+        <v>6.051005010043479</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.05307363949524</v>
       </c>
       <c r="L24">
-        <v>6.022441479058736</v>
+        <v>7.970445354517759</v>
       </c>
       <c r="M24">
-        <v>14.05060422090523</v>
+        <v>11.97796330583473</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>13.18163019698923</v>
       </c>
       <c r="O24">
-        <v>35.29348428846757</v>
+        <v>17.6434125280274</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.10668672431861</v>
+        <v>14.50023404609508</v>
       </c>
       <c r="C25">
-        <v>14.1276675106804</v>
+        <v>7.14473202042076</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.106666738845813</v>
+        <v>9.726890268054628</v>
       </c>
       <c r="F25">
-        <v>41.59381069306419</v>
+        <v>28.84389365012107</v>
       </c>
       <c r="G25">
-        <v>2.104266744738268</v>
+        <v>2.111038576739169</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.514874508585948</v>
+        <v>6.002191900498236</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.01325162124149</v>
       </c>
       <c r="L25">
-        <v>5.924442272453052</v>
+        <v>7.669804225784898</v>
       </c>
       <c r="M25">
-        <v>13.13787344505956</v>
+        <v>11.31974210291367</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>13.56256727112791</v>
       </c>
       <c r="O25">
-        <v>33.28253327496002</v>
+        <v>17.64940492733539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.41379229500739</v>
+        <v>14.05541930061673</v>
       </c>
       <c r="C2">
-        <v>7.169488660864801</v>
+        <v>10.47391468169997</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.566841884716766</v>
+        <v>15.651076959552</v>
       </c>
       <c r="F2">
-        <v>28.17155083370567</v>
+        <v>41.10382332000375</v>
       </c>
       <c r="G2">
-        <v>2.11735167984083</v>
+        <v>3.682484561007291</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.966078525075841</v>
+        <v>8.766960101684132</v>
       </c>
       <c r="K2">
-        <v>10.18214005392859</v>
+        <v>9.770976534452185</v>
       </c>
       <c r="L2">
-        <v>7.450425310760431</v>
+        <v>12.01197037873515</v>
       </c>
       <c r="M2">
-        <v>10.82367715878581</v>
+        <v>16.19327610793412</v>
       </c>
       <c r="N2">
-        <v>13.85111324729225</v>
+        <v>21.37722336015483</v>
       </c>
       <c r="O2">
-        <v>17.69759696643415</v>
+        <v>27.77270199753175</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.63293396610555</v>
+        <v>13.88278255972271</v>
       </c>
       <c r="C3">
-        <v>7.188070058671943</v>
+        <v>10.48265985621742</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.465040112859208</v>
+        <v>15.66617811906081</v>
       </c>
       <c r="F3">
-        <v>27.7476819315781</v>
+        <v>41.14498196276925</v>
       </c>
       <c r="G3">
-        <v>2.121804004304661</v>
+        <v>3.684183835158776</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.94151330604369</v>
+        <v>8.75985112007584</v>
       </c>
       <c r="K3">
-        <v>9.578081747378214</v>
+        <v>9.646502559874977</v>
       </c>
       <c r="L3">
-        <v>7.303731055108935</v>
+        <v>12.01073920887318</v>
       </c>
       <c r="M3">
-        <v>10.48236342236522</v>
+        <v>16.16492527225335</v>
       </c>
       <c r="N3">
-        <v>14.05216730028128</v>
+        <v>21.43783914519221</v>
       </c>
       <c r="O3">
-        <v>17.75540881183584</v>
+        <v>27.85347616530236</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.13235993784346</v>
+        <v>13.77833394807025</v>
       </c>
       <c r="C4">
-        <v>7.200353134257571</v>
+        <v>10.48841822446777</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.40589668037402</v>
+        <v>15.67740707764562</v>
       </c>
       <c r="F4">
-        <v>27.50333309603425</v>
+        <v>41.1783620181906</v>
       </c>
       <c r="G4">
-        <v>2.124626607812514</v>
+        <v>3.685283120711587</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.926390877965637</v>
+        <v>8.75544391008472</v>
       </c>
       <c r="K4">
-        <v>9.18716351913001</v>
+        <v>9.570881667991456</v>
       </c>
       <c r="L4">
-        <v>7.214898030280093</v>
+        <v>12.01144468199336</v>
       </c>
       <c r="M4">
-        <v>10.27103484559635</v>
+        <v>16.14971356544147</v>
       </c>
       <c r="N4">
-        <v>14.17847631827644</v>
+        <v>21.4768063450194</v>
       </c>
       <c r="O4">
-        <v>17.80260878559523</v>
+        <v>27.90770131790789</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.92322755035061</v>
+        <v>13.73620871804913</v>
       </c>
       <c r="C5">
-        <v>7.205576223972825</v>
+        <v>10.49086284734826</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.382651384984031</v>
+        <v>15.68247580181723</v>
       </c>
       <c r="F5">
-        <v>27.40778565690639</v>
+        <v>41.19400341533866</v>
       </c>
       <c r="G5">
-        <v>2.125799616251109</v>
+        <v>3.685745194099769</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.92021938462703</v>
+        <v>8.753637449972508</v>
       </c>
       <c r="K5">
-        <v>9.02285426796559</v>
+        <v>9.54030290958832</v>
       </c>
       <c r="L5">
-        <v>7.179049356919553</v>
+        <v>12.0121009708495</v>
       </c>
       <c r="M5">
-        <v>10.18460025858143</v>
+        <v>16.14407159014682</v>
       </c>
       <c r="N5">
-        <v>14.23068791336179</v>
+        <v>21.49312683861315</v>
       </c>
       <c r="O5">
-        <v>17.82468347705114</v>
+        <v>27.93096192076417</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.88819622585338</v>
+        <v>13.72924173634151</v>
       </c>
       <c r="C6">
-        <v>7.206456599534913</v>
+        <v>10.4912747046659</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.378843498881636</v>
+        <v>15.68334724693898</v>
       </c>
       <c r="F6">
-        <v>27.39216381518408</v>
+        <v>41.19672377473415</v>
       </c>
       <c r="G6">
-        <v>2.125995781225772</v>
+        <v>3.685822774241945</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.919194095792699</v>
+        <v>8.753336859410323</v>
       </c>
       <c r="K6">
-        <v>8.995269508107018</v>
+        <v>9.535240669617071</v>
       </c>
       <c r="L6">
-        <v>7.173119117044688</v>
+        <v>12.0122322583158</v>
       </c>
       <c r="M6">
-        <v>10.1702326011386</v>
+        <v>16.14316851336994</v>
       </c>
       <c r="N6">
-        <v>14.23940285752937</v>
+        <v>21.49586351966198</v>
       </c>
       <c r="O6">
-        <v>17.82851754957065</v>
+        <v>27.93489457204969</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.12956008529281</v>
+        <v>13.77776399388073</v>
       </c>
       <c r="C7">
-        <v>7.200422696163214</v>
+        <v>10.48845079617064</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.405579707280578</v>
+        <v>15.67747343978488</v>
       </c>
       <c r="F7">
-        <v>27.50202817979297</v>
+        <v>41.1785647094493</v>
       </c>
       <c r="G7">
-        <v>2.124642334642551</v>
+        <v>3.68528929522366</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.926307682261061</v>
+        <v>8.755419589806721</v>
       </c>
       <c r="K7">
-        <v>9.184967813593774</v>
+        <v>9.570468265671078</v>
       </c>
       <c r="L7">
-        <v>7.214413086142144</v>
+        <v>12.01145203800071</v>
       </c>
       <c r="M7">
-        <v>10.26987026687078</v>
+        <v>16.1496352148115</v>
       </c>
       <c r="N7">
-        <v>14.17917744113882</v>
+        <v>21.4770246614442</v>
       </c>
       <c r="O7">
-        <v>17.80289512632664</v>
+        <v>27.90801030889037</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.14902549406994</v>
+        <v>13.99560146252717</v>
       </c>
       <c r="C8">
-        <v>7.175712777708856</v>
+        <v>10.47684948837095</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.531049347604762</v>
+        <v>15.65587819750469</v>
       </c>
       <c r="F8">
-        <v>28.02211836691362</v>
+        <v>41.11633197498496</v>
       </c>
       <c r="G8">
-        <v>2.11886866344177</v>
+        <v>3.68305888954079</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.957617137600523</v>
+        <v>8.76451778155068</v>
       </c>
       <c r="K8">
-        <v>9.97803001712934</v>
+        <v>9.727911288002675</v>
       </c>
       <c r="L8">
-        <v>7.399612314416991</v>
+        <v>12.01124337397761</v>
       </c>
       <c r="M8">
-        <v>10.70643059734052</v>
+        <v>16.18304795165703</v>
       </c>
       <c r="N8">
-        <v>13.91985533749099</v>
+        <v>21.39776147900949</v>
       </c>
       <c r="O8">
-        <v>17.71503920055784</v>
+        <v>27.79959166584656</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.97502160873184</v>
+        <v>14.43293614478399</v>
       </c>
       <c r="C9">
-        <v>7.134297749273672</v>
+        <v>10.45717207239147</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.803251271101921</v>
+        <v>15.62902010442381</v>
       </c>
       <c r="F9">
-        <v>29.16657927441541</v>
+        <v>41.05861661592858</v>
       </c>
       <c r="G9">
-        <v>2.108231135974293</v>
+        <v>3.679126844282809</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.01866377032384</v>
+        <v>8.782018258075745</v>
       </c>
       <c r="K9">
-        <v>11.37368056213067</v>
+        <v>10.04153168226222</v>
       </c>
       <c r="L9">
-        <v>7.770863197337345</v>
+        <v>12.02236885153038</v>
       </c>
       <c r="M9">
-        <v>11.54347990132215</v>
+        <v>16.26577099305333</v>
       </c>
       <c r="N9">
-        <v>13.43306100353434</v>
+        <v>21.25614373244112</v>
       </c>
       <c r="O9">
-        <v>17.64029562379768</v>
+        <v>27.623746790924</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.20563151256695</v>
+        <v>14.75754725892218</v>
       </c>
       <c r="C10">
-        <v>7.108325343360504</v>
+        <v>10.44457169862088</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.01839490082487</v>
+        <v>15.61867953344081</v>
       </c>
       <c r="F10">
-        <v>30.08059918391094</v>
+        <v>41.05537254866283</v>
       </c>
       <c r="G10">
-        <v>2.100803184751348</v>
+        <v>3.67650454183714</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.063247897540793</v>
+        <v>8.794661130255827</v>
       </c>
       <c r="K10">
-        <v>12.30159730469815</v>
+        <v>10.27288356915588</v>
       </c>
       <c r="L10">
-        <v>8.046280671321535</v>
+        <v>12.03748806864015</v>
       </c>
       <c r="M10">
-        <v>12.14077016281214</v>
+        <v>16.3367174216822</v>
       </c>
       <c r="N10">
-        <v>13.08724130323018</v>
+        <v>21.16043594238356</v>
       </c>
       <c r="O10">
-        <v>17.65137855232865</v>
+        <v>27.51700655319309</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.78397596377981</v>
+        <v>14.90533042799121</v>
       </c>
       <c r="C11">
-        <v>7.097518194936665</v>
+        <v>10.4392391220681</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.11937395028684</v>
+        <v>15.61600231582698</v>
       </c>
       <c r="F11">
-        <v>30.51160294844967</v>
+        <v>41.06237395251232</v>
       </c>
       <c r="G11">
-        <v>2.097501183668351</v>
+        <v>3.675368888363971</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.083460429697371</v>
+        <v>8.800364617511343</v>
       </c>
       <c r="K11">
-        <v>12.70267474601216</v>
+        <v>10.37790956072235</v>
       </c>
       <c r="L11">
-        <v>8.171704445529087</v>
+        <v>12.0458536467451</v>
       </c>
       <c r="M11">
-        <v>12.40757589708568</v>
+        <v>16.3711269230446</v>
       </c>
       <c r="N11">
-        <v>12.93215483641462</v>
+        <v>21.11868863414902</v>
       </c>
       <c r="O11">
-        <v>17.6721827341371</v>
+        <v>27.47333116217211</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.00049420478991</v>
+        <v>14.96125893868467</v>
       </c>
       <c r="C12">
-        <v>7.093574608026761</v>
+        <v>10.43727697385146</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.15804252542864</v>
+        <v>15.61527875733419</v>
       </c>
       <c r="F12">
-        <v>30.67693696008621</v>
+        <v>41.06624064707317</v>
       </c>
       <c r="G12">
-        <v>2.096261273481071</v>
+        <v>3.674947033600104</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.091103311907456</v>
+        <v>8.802517351384017</v>
       </c>
       <c r="K12">
-        <v>12.85154274633415</v>
+        <v>10.41761431294285</v>
       </c>
       <c r="L12">
-        <v>8.219183899262889</v>
+        <v>12.04923344327505</v>
       </c>
       <c r="M12">
-        <v>12.50782725552648</v>
+        <v>16.38445717218798</v>
       </c>
       <c r="N12">
-        <v>12.87371930645219</v>
+        <v>21.10313617758171</v>
       </c>
       <c r="O12">
-        <v>17.68244649907004</v>
+        <v>27.45749498035494</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.9540660854549</v>
+        <v>14.94921602579321</v>
       </c>
       <c r="C13">
-        <v>7.094417243413831</v>
+        <v>10.43769701831476</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.14969570410499</v>
+        <v>15.61542169989597</v>
       </c>
       <c r="F13">
-        <v>30.64123596432735</v>
+        <v>41.06535389470222</v>
       </c>
       <c r="G13">
-        <v>2.096527853689245</v>
+        <v>3.675037523825996</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.089457797282698</v>
+        <v>8.802054038155386</v>
       </c>
       <c r="K13">
-        <v>12.81961501834843</v>
+        <v>10.4090666820053</v>
       </c>
       <c r="L13">
-        <v>8.208959585835407</v>
+        <v>12.04849615099649</v>
       </c>
       <c r="M13">
-        <v>12.48627223510996</v>
+        <v>16.38157303113438</v>
       </c>
       <c r="N13">
-        <v>12.88629190692554</v>
+        <v>21.10647429463835</v>
       </c>
       <c r="O13">
-        <v>17.68012800551523</v>
+        <v>27.46087431840742</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.80188057691383</v>
+        <v>14.90993266178852</v>
       </c>
       <c r="C14">
-        <v>7.097190746714698</v>
+        <v>10.43907655034898</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.12254671747672</v>
+        <v>15.61593697846532</v>
       </c>
       <c r="F14">
-        <v>30.5251629149664</v>
+        <v>41.06266773238635</v>
       </c>
       <c r="G14">
-        <v>2.097398968846996</v>
+        <v>3.675334018150704</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.084089445249416</v>
+        <v>8.800541866597644</v>
       </c>
       <c r="K14">
-        <v>12.71498246157082</v>
+        <v>10.38117762120403</v>
       </c>
       <c r="L14">
-        <v>8.175611118189373</v>
+        <v>12.04612746907814</v>
       </c>
       <c r="M14">
-        <v>12.41583971683971</v>
+        <v>16.37221763693773</v>
       </c>
       <c r="N14">
-        <v>12.92734161816507</v>
+        <v>21.11740399323787</v>
       </c>
       <c r="O14">
-        <v>17.67297864284402</v>
+        <v>27.47201422149278</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.70806745212154</v>
+        <v>14.88586459203826</v>
       </c>
       <c r="C15">
-        <v>7.098909104738444</v>
+        <v>10.43992899306188</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.10597266958967</v>
+        <v>15.6162903629068</v>
       </c>
       <c r="F15">
-        <v>30.45433927544505</v>
+        <v>41.0611805435727</v>
       </c>
       <c r="G15">
-        <v>2.097933899581684</v>
+        <v>3.675516695241439</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.080799683004858</v>
+        <v>8.799614694053973</v>
       </c>
       <c r="K15">
-        <v>12.65050032649396</v>
+        <v>10.36408510503722</v>
       </c>
       <c r="L15">
-        <v>8.155181158515402</v>
+        <v>12.04470412150122</v>
       </c>
       <c r="M15">
-        <v>12.37259379518408</v>
+        <v>16.36652605960061</v>
       </c>
       <c r="N15">
-        <v>12.95252296081978</v>
+        <v>21.12413209871186</v>
       </c>
       <c r="O15">
-        <v>17.66891368501446</v>
+        <v>27.47892927477136</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.17016156217076</v>
+        <v>14.7478872771102</v>
       </c>
       <c r="C16">
-        <v>7.109052222379297</v>
+        <v>10.44492821050172</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.01185678810154</v>
+        <v>15.61889517894799</v>
       </c>
       <c r="F16">
-        <v>30.05273259277511</v>
+        <v>41.05508528324673</v>
       </c>
       <c r="G16">
-        <v>2.101020478435318</v>
+        <v>3.676579908019802</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.061925467252512</v>
+        <v>8.794287416681314</v>
       </c>
       <c r="K16">
-        <v>12.27496370003949</v>
+        <v>10.26601248410977</v>
       </c>
       <c r="L16">
-        <v>8.038083581097991</v>
+        <v>12.0369711273831</v>
       </c>
       <c r="M16">
-        <v>12.12322827814064</v>
+        <v>16.33451106421322</v>
       </c>
       <c r="N16">
-        <v>13.09741904785123</v>
+        <v>21.16320016100264</v>
       </c>
       <c r="O16">
-        <v>17.65034628727613</v>
+        <v>27.51995913775745</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.85654312392444</v>
+        <v>14.66323612653867</v>
       </c>
       <c r="C17">
-        <v>7.115535494596532</v>
+        <v>10.44809718495183</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.954903958382895</v>
+        <v>15.62101142535434</v>
       </c>
       <c r="F17">
-        <v>29.81020957608865</v>
+        <v>41.05351493151409</v>
       </c>
       <c r="G17">
-        <v>2.102933310984822</v>
+        <v>3.677246788449445</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.050328202744775</v>
+        <v>8.791006932306974</v>
       </c>
       <c r="K17">
-        <v>12.03920433714686</v>
+        <v>10.20576724585263</v>
       </c>
       <c r="L17">
-        <v>7.966256739357938</v>
+        <v>12.03260684964676</v>
       </c>
       <c r="M17">
-        <v>11.96893642806499</v>
+        <v>16.31541301595301</v>
       </c>
       <c r="N17">
-        <v>13.18685941761856</v>
+        <v>21.18762495767739</v>
       </c>
       <c r="O17">
-        <v>17.64307734585789</v>
+        <v>27.54638044205155</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.67383196867447</v>
+        <v>14.6145608925844</v>
       </c>
       <c r="C18">
-        <v>7.119359105832138</v>
+        <v>10.44995750315599</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.922439886425165</v>
+        <v>15.62241947992296</v>
       </c>
       <c r="F18">
-        <v>29.67215250641648</v>
+        <v>41.05340987950331</v>
       </c>
       <c r="G18">
-        <v>2.104040807474747</v>
+        <v>3.677635750933334</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.043651344347129</v>
+        <v>8.789115594293927</v>
       </c>
       <c r="K18">
-        <v>11.90162056936072</v>
+        <v>10.1710973867239</v>
       </c>
       <c r="L18">
-        <v>7.924958503569894</v>
+        <v>12.03023679597976</v>
       </c>
       <c r="M18">
-        <v>11.87973412820321</v>
+        <v>16.30462977579056</v>
       </c>
       <c r="N18">
-        <v>13.23851470324138</v>
+        <v>21.20184206675936</v>
       </c>
       <c r="O18">
-        <v>17.6403728983502</v>
+        <v>27.56203668080914</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.6115708789768</v>
+        <v>14.59808423166329</v>
       </c>
       <c r="C19">
-        <v>7.120669850112557</v>
+        <v>10.45059384178233</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.911499069258937</v>
+        <v>15.62292903603437</v>
       </c>
       <c r="F19">
-        <v>29.62565733444043</v>
+        <v>41.05351149431445</v>
       </c>
       <c r="G19">
-        <v>2.104417055478212</v>
+        <v>3.677768373970542</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.041389609517691</v>
+        <v>8.788474453885227</v>
       </c>
       <c r="K19">
-        <v>11.85469645773242</v>
+        <v>10.15935669318525</v>
       </c>
       <c r="L19">
-        <v>7.910979262963691</v>
+        <v>12.02945846893956</v>
       </c>
       <c r="M19">
-        <v>11.84945566257061</v>
+        <v>16.30101356314762</v>
       </c>
       <c r="N19">
-        <v>13.25604145968333</v>
+        <v>21.20668473010917</v>
       </c>
       <c r="O19">
-        <v>17.63970718947717</v>
+        <v>27.56741649139133</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.89016937983519</v>
+        <v>14.6722463195937</v>
       </c>
       <c r="C20">
-        <v>7.114835520824959</v>
+        <v>10.44775595175551</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.960936412059835</v>
+        <v>15.62076640392424</v>
       </c>
       <c r="F20">
-        <v>29.83587844328725</v>
+        <v>41.05359951378006</v>
       </c>
       <c r="G20">
-        <v>2.102728936795712</v>
+        <v>3.677175240278186</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.051563424499742</v>
+        <v>8.791356611452784</v>
       </c>
       <c r="K20">
-        <v>12.06450628862864</v>
+        <v>10.21218261482198</v>
       </c>
       <c r="L20">
-        <v>7.973901574760482</v>
+        <v>12.03305694223244</v>
       </c>
       <c r="M20">
-        <v>11.98540901977469</v>
+        <v>16.31742523584463</v>
       </c>
       <c r="N20">
-        <v>13.17731664139546</v>
+        <v>21.18500745401465</v>
       </c>
       <c r="O20">
-        <v>17.64369747014991</v>
+        <v>27.54352029646608</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.84670508345336</v>
+        <v>14.92147245073683</v>
       </c>
       <c r="C21">
-        <v>7.096372028727512</v>
+        <v>10.43866979840615</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.13050949934375</v>
+        <v>15.61577776147529</v>
       </c>
       <c r="F21">
-        <v>30.55919930204742</v>
+        <v>41.06342376980272</v>
       </c>
       <c r="G21">
-        <v>2.097142821479327</v>
+        <v>3.675246708547654</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.085666573501908</v>
+        <v>8.800986220878752</v>
       </c>
       <c r="K21">
-        <v>12.74579717286473</v>
+        <v>10.38937138905091</v>
       </c>
       <c r="L21">
-        <v>8.185407068500488</v>
+        <v>12.0468174731217</v>
       </c>
       <c r="M21">
-        <v>12.43654924503466</v>
+        <v>16.37495745504254</v>
       </c>
       <c r="N21">
-        <v>12.9152766211351</v>
+        <v>21.11418672785151</v>
       </c>
       <c r="O21">
-        <v>17.67501288445014</v>
+        <v>27.46872308347982</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.46844750513924</v>
+        <v>15.08413677750205</v>
       </c>
       <c r="C22">
-        <v>7.085174765365646</v>
+        <v>10.43306466264545</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.2438337910336</v>
+        <v>15.61420855012945</v>
       </c>
       <c r="F22">
-        <v>31.04427212012448</v>
+        <v>41.07692664427137</v>
       </c>
       <c r="G22">
-        <v>2.093552794545722</v>
+        <v>3.674034036127388</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.107889266910594</v>
+        <v>8.807238533060996</v>
       </c>
       <c r="K22">
-        <v>13.17351754622266</v>
+        <v>10.50477239934965</v>
       </c>
       <c r="L22">
-        <v>8.32353152692261</v>
+        <v>12.05704507441099</v>
       </c>
       <c r="M22">
-        <v>12.72680780929313</v>
+        <v>16.41430394980584</v>
       </c>
       <c r="N22">
-        <v>12.74570807609777</v>
+        <v>21.06939492680934</v>
       </c>
       <c r="O22">
-        <v>17.70944064052345</v>
+        <v>27.4239352332914</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.13903678062072</v>
+        <v>14.99735618987088</v>
       </c>
       <c r="C23">
-        <v>7.091069978115773</v>
+        <v>10.43602582410344</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.18312751796397</v>
+        <v>15.61489174627123</v>
       </c>
       <c r="F23">
-        <v>30.78427167393746</v>
+        <v>41.06907327437535</v>
       </c>
       <c r="G23">
-        <v>2.095463497564234</v>
+        <v>3.67467690737466</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.096035029123123</v>
+        <v>8.803905384830529</v>
       </c>
       <c r="K23">
-        <v>12.94683451932976</v>
+        <v>10.44322884261699</v>
       </c>
       <c r="L23">
-        <v>8.249832618995306</v>
+        <v>12.05147416547529</v>
       </c>
       <c r="M23">
-        <v>12.57233389134337</v>
+        <v>16.39314662348405</v>
       </c>
       <c r="N23">
-        <v>12.8360651236289</v>
+        <v>21.09316486312519</v>
       </c>
       <c r="O23">
-        <v>17.68974889278468</v>
+        <v>27.44746426989298</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.87497444638626</v>
+        <v>14.66817283286476</v>
       </c>
       <c r="C24">
-        <v>7.115151679331571</v>
+        <v>10.4479101035575</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.95820826984186</v>
+        <v>15.62087658185176</v>
       </c>
       <c r="F24">
-        <v>29.82426926797999</v>
+        <v>41.05355878890548</v>
       </c>
       <c r="G24">
-        <v>2.102821310078443</v>
+        <v>3.677207569871586</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.051005010043479</v>
+        <v>8.791198538140405</v>
       </c>
       <c r="K24">
-        <v>12.05307363949524</v>
+        <v>10.2092823299386</v>
       </c>
       <c r="L24">
-        <v>7.970445354517759</v>
+        <v>12.03285302217156</v>
       </c>
       <c r="M24">
-        <v>11.97796330583473</v>
+        <v>16.31651489868411</v>
       </c>
       <c r="N24">
-        <v>13.18163019698923</v>
+        <v>21.18619028230697</v>
       </c>
       <c r="O24">
-        <v>17.6434125280274</v>
+        <v>27.54481191590701</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.50023404609508</v>
+        <v>14.31383732070055</v>
       </c>
       <c r="C25">
-        <v>7.14473202042076</v>
+        <v>10.462168102726</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.726890268054628</v>
+        <v>15.63463255972512</v>
       </c>
       <c r="F25">
-        <v>28.84389365012107</v>
+        <v>41.06734660431608</v>
       </c>
       <c r="G25">
-        <v>2.111038576739169</v>
+        <v>3.68014355688809</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.002191900498236</v>
+        <v>8.777321118742009</v>
       </c>
       <c r="K25">
-        <v>11.01325162124149</v>
+        <v>9.956378575657904</v>
       </c>
       <c r="L25">
-        <v>7.669804225784898</v>
+        <v>12.01813272319781</v>
       </c>
       <c r="M25">
-        <v>11.31974210291367</v>
+        <v>16.24158204909106</v>
       </c>
       <c r="N25">
-        <v>13.56256727112791</v>
+        <v>21.29298464402561</v>
       </c>
       <c r="O25">
-        <v>17.64940492733539</v>
+        <v>27.66737729327744</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.05541930061673</v>
+        <v>13.41379229500737</v>
       </c>
       <c r="C2">
-        <v>10.47391468169997</v>
+        <v>7.169488660864663</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.651076959552</v>
+        <v>9.566841884716776</v>
       </c>
       <c r="F2">
-        <v>41.10382332000375</v>
+        <v>28.17155083370582</v>
       </c>
       <c r="G2">
-        <v>3.682484561007291</v>
+        <v>2.117351679840564</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.766960101684132</v>
+        <v>5.966078525075773</v>
       </c>
       <c r="K2">
-        <v>9.770976534452185</v>
+        <v>10.18214005392854</v>
       </c>
       <c r="L2">
-        <v>12.01197037873515</v>
+        <v>7.450425310760508</v>
       </c>
       <c r="M2">
-        <v>16.19327610793412</v>
+        <v>10.82367715878582</v>
       </c>
       <c r="N2">
-        <v>21.37722336015483</v>
+        <v>13.85111324729235</v>
       </c>
       <c r="O2">
-        <v>27.77270199753175</v>
+        <v>17.69759696643426</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.88278255972271</v>
+        <v>12.63293396610555</v>
       </c>
       <c r="C3">
-        <v>10.48265985621742</v>
+        <v>7.188070058672083</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.66617811906081</v>
+        <v>9.465040112859265</v>
       </c>
       <c r="F3">
-        <v>41.14498196276925</v>
+        <v>27.74768193157821</v>
       </c>
       <c r="G3">
-        <v>3.684183835158776</v>
+        <v>2.121804004304796</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.75985112007584</v>
+        <v>5.941513306043658</v>
       </c>
       <c r="K3">
-        <v>9.646502559874977</v>
+        <v>9.57808174737824</v>
       </c>
       <c r="L3">
-        <v>12.01073920887318</v>
+        <v>7.303731055108946</v>
       </c>
       <c r="M3">
-        <v>16.16492527225335</v>
+        <v>10.48236342236522</v>
       </c>
       <c r="N3">
-        <v>21.43783914519221</v>
+        <v>14.05216730028128</v>
       </c>
       <c r="O3">
-        <v>27.85347616530236</v>
+        <v>17.75540881183582</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.77833394807025</v>
+        <v>12.13235993784346</v>
       </c>
       <c r="C4">
-        <v>10.48841822446777</v>
+        <v>7.200353134257566</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.67740707764562</v>
+        <v>9.405896680374024</v>
       </c>
       <c r="F4">
-        <v>41.1783620181906</v>
+        <v>27.50333309603436</v>
       </c>
       <c r="G4">
-        <v>3.685283120711587</v>
+        <v>2.124626607812246</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.75544391008472</v>
+        <v>5.926390877965568</v>
       </c>
       <c r="K4">
-        <v>9.570881667991456</v>
+        <v>9.187163519130028</v>
       </c>
       <c r="L4">
-        <v>12.01144468199336</v>
+        <v>7.214898030280096</v>
       </c>
       <c r="M4">
-        <v>16.14971356544147</v>
+        <v>10.27103484559633</v>
       </c>
       <c r="N4">
-        <v>21.4768063450194</v>
+        <v>14.17847631827651</v>
       </c>
       <c r="O4">
-        <v>27.90770131790789</v>
+        <v>17.8026087855953</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.73620871804913</v>
+        <v>11.92322755035061</v>
       </c>
       <c r="C5">
-        <v>10.49086284734826</v>
+        <v>7.205576223972825</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.68247580181723</v>
+        <v>9.382651384984031</v>
       </c>
       <c r="F5">
-        <v>41.19400341533866</v>
+        <v>27.40778565690643</v>
       </c>
       <c r="G5">
-        <v>3.685745194099769</v>
+        <v>2.125799616250974</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.753637449972508</v>
+        <v>5.920219384626998</v>
       </c>
       <c r="K5">
-        <v>9.54030290958832</v>
+        <v>9.02285426796559</v>
       </c>
       <c r="L5">
-        <v>12.0121009708495</v>
+        <v>7.179049356919553</v>
       </c>
       <c r="M5">
-        <v>16.14407159014682</v>
+        <v>10.18460025858143</v>
       </c>
       <c r="N5">
-        <v>21.49312683861315</v>
+        <v>14.23068791336179</v>
       </c>
       <c r="O5">
-        <v>27.93096192076417</v>
+        <v>17.82468347705113</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.72924173634151</v>
+        <v>11.88819622585338</v>
       </c>
       <c r="C6">
-        <v>10.4912747046659</v>
+        <v>7.20645659953478</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.68334724693898</v>
+        <v>9.378843498881647</v>
       </c>
       <c r="F6">
-        <v>41.19672377473415</v>
+        <v>27.39216381518406</v>
       </c>
       <c r="G6">
-        <v>3.685822774241945</v>
+        <v>2.125995781225772</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.753336859410323</v>
+        <v>5.9191940957927</v>
       </c>
       <c r="K6">
-        <v>9.535240669617071</v>
+        <v>8.995269508107011</v>
       </c>
       <c r="L6">
-        <v>12.0122322583158</v>
+        <v>7.173119117044768</v>
       </c>
       <c r="M6">
-        <v>16.14316851336994</v>
+        <v>10.1702326011386</v>
       </c>
       <c r="N6">
-        <v>21.49586351966198</v>
+        <v>14.23940285752934</v>
       </c>
       <c r="O6">
-        <v>27.93489457204969</v>
+        <v>17.82851754957059</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.77776399388073</v>
+        <v>12.12956008529283</v>
       </c>
       <c r="C7">
-        <v>10.48845079617064</v>
+        <v>7.200422696163081</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.67747343978488</v>
+        <v>9.405579707280637</v>
       </c>
       <c r="F7">
-        <v>41.1785647094493</v>
+        <v>27.50202817979295</v>
       </c>
       <c r="G7">
-        <v>3.68528929522366</v>
+        <v>2.124642334642683</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.755419589806721</v>
+        <v>5.926307682261026</v>
       </c>
       <c r="K7">
-        <v>9.570468265671078</v>
+        <v>9.184967813593769</v>
       </c>
       <c r="L7">
-        <v>12.01145203800071</v>
+        <v>7.214413086142196</v>
       </c>
       <c r="M7">
-        <v>16.1496352148115</v>
+        <v>10.2698702668708</v>
       </c>
       <c r="N7">
-        <v>21.4770246614442</v>
+        <v>14.17917744113876</v>
       </c>
       <c r="O7">
-        <v>27.90801030889037</v>
+        <v>17.80289512632651</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.99560146252717</v>
+        <v>13.14902549406996</v>
       </c>
       <c r="C8">
-        <v>10.47684948837095</v>
+        <v>7.175712777708856</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.65587819750469</v>
+        <v>9.531049347604755</v>
       </c>
       <c r="F8">
-        <v>41.11633197498496</v>
+        <v>28.02211836691388</v>
       </c>
       <c r="G8">
-        <v>3.68305888954079</v>
+        <v>2.118868663442037</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.76451778155068</v>
+        <v>5.957617137600524</v>
       </c>
       <c r="K8">
-        <v>9.727911288002675</v>
+        <v>9.978030017129305</v>
       </c>
       <c r="L8">
-        <v>12.01124337397761</v>
+        <v>7.399612314416985</v>
       </c>
       <c r="M8">
-        <v>16.18304795165703</v>
+        <v>10.70643059734055</v>
       </c>
       <c r="N8">
-        <v>21.39776147900949</v>
+        <v>13.91985533749112</v>
       </c>
       <c r="O8">
-        <v>27.79959166584656</v>
+        <v>17.71503920055805</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.43293614478399</v>
+        <v>14.97502160873182</v>
       </c>
       <c r="C9">
-        <v>10.45717207239147</v>
+        <v>7.134297749273411</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.62902010442381</v>
+        <v>9.803251271101869</v>
       </c>
       <c r="F9">
-        <v>41.05861661592858</v>
+        <v>29.16657927441529</v>
       </c>
       <c r="G9">
-        <v>3.679126844282809</v>
+        <v>2.108231135974559</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.782018258075745</v>
+        <v>6.018663770323746</v>
       </c>
       <c r="K9">
-        <v>10.04153168226222</v>
+        <v>11.3736805621307</v>
       </c>
       <c r="L9">
-        <v>12.02236885153038</v>
+        <v>7.770863197337348</v>
       </c>
       <c r="M9">
-        <v>16.26577099305333</v>
+        <v>11.54347990132212</v>
       </c>
       <c r="N9">
-        <v>21.25614373244112</v>
+        <v>13.43306100353421</v>
       </c>
       <c r="O9">
-        <v>27.623746790924</v>
+        <v>17.64029562379751</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.75754725892218</v>
+        <v>16.20563151256694</v>
       </c>
       <c r="C10">
-        <v>10.44457169862088</v>
+        <v>7.108325343360502</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.61867953344081</v>
+        <v>10.01839490082492</v>
       </c>
       <c r="F10">
-        <v>41.05537254866283</v>
+        <v>30.08059918391093</v>
       </c>
       <c r="G10">
-        <v>3.67650454183714</v>
+        <v>2.100803184751349</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.794661130255827</v>
+        <v>6.063247897540798</v>
       </c>
       <c r="K10">
-        <v>10.27288356915588</v>
+        <v>12.30159730469817</v>
       </c>
       <c r="L10">
-        <v>12.03748806864015</v>
+        <v>8.046280671321544</v>
       </c>
       <c r="M10">
-        <v>16.3367174216822</v>
+        <v>12.14077016281214</v>
       </c>
       <c r="N10">
-        <v>21.16043594238356</v>
+        <v>13.08724130323015</v>
       </c>
       <c r="O10">
-        <v>27.51700655319309</v>
+        <v>17.65137855232857</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.90533042799121</v>
+        <v>16.78397596377981</v>
       </c>
       <c r="C11">
-        <v>10.4392391220681</v>
+        <v>7.097518194936929</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.61600231582698</v>
+        <v>10.11937395028693</v>
       </c>
       <c r="F11">
-        <v>41.06237395251232</v>
+        <v>30.51160294844965</v>
       </c>
       <c r="G11">
-        <v>3.675368888363971</v>
+        <v>2.097501183668618</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.800364617511343</v>
+        <v>6.08346042969734</v>
       </c>
       <c r="K11">
-        <v>10.37790956072235</v>
+        <v>12.70267474601222</v>
       </c>
       <c r="L11">
-        <v>12.0458536467451</v>
+        <v>8.171704445529066</v>
       </c>
       <c r="M11">
-        <v>16.3711269230446</v>
+        <v>12.40757589708567</v>
       </c>
       <c r="N11">
-        <v>21.11868863414902</v>
+        <v>12.93215483641452</v>
       </c>
       <c r="O11">
-        <v>27.47333116217211</v>
+        <v>17.67218273413695</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.96125893868467</v>
+        <v>17.0004942047899</v>
       </c>
       <c r="C12">
-        <v>10.43727697385146</v>
+        <v>7.093574608026626</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.61527875733419</v>
+        <v>10.15804252542855</v>
       </c>
       <c r="F12">
-        <v>41.06624064707317</v>
+        <v>30.67693696008631</v>
       </c>
       <c r="G12">
-        <v>3.674947033600104</v>
+        <v>2.096261273481203</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.802517351384017</v>
+        <v>6.09110331190739</v>
       </c>
       <c r="K12">
-        <v>10.41761431294285</v>
+        <v>12.85154274633413</v>
       </c>
       <c r="L12">
-        <v>12.04923344327505</v>
+        <v>8.219183899262843</v>
       </c>
       <c r="M12">
-        <v>16.38445717218798</v>
+        <v>12.50782725552647</v>
       </c>
       <c r="N12">
-        <v>21.10313617758171</v>
+        <v>12.87371930645226</v>
       </c>
       <c r="O12">
-        <v>27.45749498035494</v>
+        <v>17.68244649907015</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.94921602579321</v>
+        <v>16.95406608545497</v>
       </c>
       <c r="C13">
-        <v>10.43769701831476</v>
+        <v>7.094417243413558</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.61542169989597</v>
+        <v>10.14969570410494</v>
       </c>
       <c r="F13">
-        <v>41.06535389470222</v>
+        <v>30.64123596432725</v>
       </c>
       <c r="G13">
-        <v>3.675037523825996</v>
+        <v>2.096527853689245</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.802054038155386</v>
+        <v>6.089457797282665</v>
       </c>
       <c r="K13">
-        <v>10.4090666820053</v>
+        <v>12.81961501834845</v>
       </c>
       <c r="L13">
-        <v>12.04849615099649</v>
+        <v>8.208959585835434</v>
       </c>
       <c r="M13">
-        <v>16.38157303113438</v>
+        <v>12.48627223510993</v>
       </c>
       <c r="N13">
-        <v>21.10647429463835</v>
+        <v>12.8862919069254</v>
       </c>
       <c r="O13">
-        <v>27.46087431840742</v>
+        <v>17.68012800551509</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.90993266178852</v>
+        <v>16.80188057691381</v>
       </c>
       <c r="C14">
-        <v>10.43907655034898</v>
+        <v>7.097190746714835</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.61593697846532</v>
+        <v>10.12254671747672</v>
       </c>
       <c r="F14">
-        <v>41.06266773238635</v>
+        <v>30.52516291496628</v>
       </c>
       <c r="G14">
-        <v>3.675334018150704</v>
+        <v>2.097398968847132</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.800541866597644</v>
+        <v>6.084089445249254</v>
       </c>
       <c r="K14">
-        <v>10.38117762120403</v>
+        <v>12.71498246157079</v>
       </c>
       <c r="L14">
-        <v>12.04612746907814</v>
+        <v>8.175611118189396</v>
       </c>
       <c r="M14">
-        <v>16.37221763693773</v>
+        <v>12.41583971683969</v>
       </c>
       <c r="N14">
-        <v>21.11740399323787</v>
+        <v>12.9273416181649</v>
       </c>
       <c r="O14">
-        <v>27.47201422149278</v>
+        <v>17.67297864284387</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.88586459203826</v>
+        <v>16.70806745212154</v>
       </c>
       <c r="C15">
-        <v>10.43992899306188</v>
+        <v>7.098909104738585</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.6162903629068</v>
+        <v>10.10597266958976</v>
       </c>
       <c r="F15">
-        <v>41.0611805435727</v>
+        <v>30.45433927544494</v>
       </c>
       <c r="G15">
-        <v>3.675516695241439</v>
+        <v>2.097933899581818</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.799614694053973</v>
+        <v>6.08079968300489</v>
       </c>
       <c r="K15">
-        <v>10.36408510503722</v>
+        <v>12.65050032649402</v>
       </c>
       <c r="L15">
-        <v>12.04470412150122</v>
+        <v>8.155181158515402</v>
       </c>
       <c r="M15">
-        <v>16.36652605960061</v>
+        <v>12.37259379518407</v>
       </c>
       <c r="N15">
-        <v>21.12413209871186</v>
+        <v>12.95252296081971</v>
       </c>
       <c r="O15">
-        <v>27.47892927477136</v>
+        <v>17.66891368501429</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.7478872771102</v>
+        <v>16.17016156217078</v>
       </c>
       <c r="C16">
-        <v>10.44492821050172</v>
+        <v>7.109052222379029</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.61889517894799</v>
+        <v>10.01185678810157</v>
       </c>
       <c r="F16">
-        <v>41.05508528324673</v>
+        <v>30.05273259277508</v>
       </c>
       <c r="G16">
-        <v>3.676579908019802</v>
+        <v>2.101020478435451</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.794287416681314</v>
+        <v>6.061925467252544</v>
       </c>
       <c r="K16">
-        <v>10.26601248410977</v>
+        <v>12.27496370003952</v>
       </c>
       <c r="L16">
-        <v>12.0369711273831</v>
+        <v>8.03808358109808</v>
       </c>
       <c r="M16">
-        <v>16.33451106421322</v>
+        <v>12.12322827814066</v>
       </c>
       <c r="N16">
-        <v>21.16320016100264</v>
+        <v>13.09741904785113</v>
       </c>
       <c r="O16">
-        <v>27.51995913775745</v>
+        <v>17.65034628727602</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.66323612653867</v>
+        <v>15.85654312392443</v>
       </c>
       <c r="C17">
-        <v>10.44809718495183</v>
+        <v>7.115535494596798</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.62101142535434</v>
+        <v>9.954903958382978</v>
       </c>
       <c r="F17">
-        <v>41.05351493151409</v>
+        <v>29.81020957608855</v>
       </c>
       <c r="G17">
-        <v>3.677246788449445</v>
+        <v>2.102933310985086</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.791006932306974</v>
+        <v>6.050328202744744</v>
       </c>
       <c r="K17">
-        <v>10.20576724585263</v>
+        <v>12.03920433714694</v>
       </c>
       <c r="L17">
-        <v>12.03260684964676</v>
+        <v>7.966256739357966</v>
       </c>
       <c r="M17">
-        <v>16.31541301595301</v>
+        <v>11.96893642806497</v>
       </c>
       <c r="N17">
-        <v>21.18762495767739</v>
+        <v>13.18685941761842</v>
       </c>
       <c r="O17">
-        <v>27.54638044205155</v>
+        <v>17.64307734585764</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.6145608925844</v>
+        <v>15.67383196867447</v>
       </c>
       <c r="C18">
-        <v>10.44995750315599</v>
+        <v>7.119359105831995</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.62241947992296</v>
+        <v>9.922439886425172</v>
       </c>
       <c r="F18">
-        <v>41.05340987950331</v>
+        <v>29.67215250641657</v>
       </c>
       <c r="G18">
-        <v>3.677635750933334</v>
+        <v>2.10404080747448</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.789115594293927</v>
+        <v>6.043651344347064</v>
       </c>
       <c r="K18">
-        <v>10.1710973867239</v>
+        <v>11.90162056936074</v>
       </c>
       <c r="L18">
-        <v>12.03023679597976</v>
+        <v>7.924958503569919</v>
       </c>
       <c r="M18">
-        <v>16.30462977579056</v>
+        <v>11.8797341282032</v>
       </c>
       <c r="N18">
-        <v>21.20184206675936</v>
+        <v>13.23851470324145</v>
       </c>
       <c r="O18">
-        <v>27.56203668080914</v>
+        <v>17.6403728983502</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.59808423166329</v>
+        <v>15.61157087897678</v>
       </c>
       <c r="C19">
-        <v>10.45059384178233</v>
+        <v>7.120669850112287</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.62292903603437</v>
+        <v>9.911499069258891</v>
       </c>
       <c r="F19">
-        <v>41.05351149431445</v>
+        <v>29.62565733444033</v>
       </c>
       <c r="G19">
-        <v>3.677768373970542</v>
+        <v>2.104417055477945</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.788474453885227</v>
+        <v>6.041389609517696</v>
       </c>
       <c r="K19">
-        <v>10.15935669318525</v>
+        <v>11.85469645773241</v>
       </c>
       <c r="L19">
-        <v>12.02945846893956</v>
+        <v>7.910979262963693</v>
       </c>
       <c r="M19">
-        <v>16.30101356314762</v>
+        <v>11.84945566257058</v>
       </c>
       <c r="N19">
-        <v>21.20668473010917</v>
+        <v>13.25604145968327</v>
       </c>
       <c r="O19">
-        <v>27.56741649139133</v>
+        <v>17.63970718947708</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.6722463195937</v>
+        <v>15.89016937983519</v>
       </c>
       <c r="C20">
-        <v>10.44775595175551</v>
+        <v>7.114835520825228</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.62076640392424</v>
+        <v>9.960936412060054</v>
       </c>
       <c r="F20">
-        <v>41.05359951378006</v>
+        <v>29.83587844328736</v>
       </c>
       <c r="G20">
-        <v>3.677175240278186</v>
+        <v>2.102728936795845</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.791356611452784</v>
+        <v>6.051563424499776</v>
       </c>
       <c r="K20">
-        <v>10.21218261482198</v>
+        <v>12.06450628862868</v>
       </c>
       <c r="L20">
-        <v>12.03305694223244</v>
+        <v>7.973901574760569</v>
       </c>
       <c r="M20">
-        <v>16.31742523584463</v>
+        <v>11.98540901977475</v>
       </c>
       <c r="N20">
-        <v>21.18500745401465</v>
+        <v>13.17731664139546</v>
       </c>
       <c r="O20">
-        <v>27.54352029646608</v>
+        <v>17.6436974701499</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.92147245073683</v>
+        <v>16.84670508345334</v>
       </c>
       <c r="C21">
-        <v>10.43866979840615</v>
+        <v>7.096372028727786</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.61577776147529</v>
+        <v>10.13050949934382</v>
       </c>
       <c r="F21">
-        <v>41.06342376980272</v>
+        <v>30.55919930204742</v>
       </c>
       <c r="G21">
-        <v>3.675246708547654</v>
+        <v>2.097142821479463</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.800986220878752</v>
+        <v>6.085666573501843</v>
       </c>
       <c r="K21">
-        <v>10.38937138905091</v>
+        <v>12.74579717286477</v>
       </c>
       <c r="L21">
-        <v>12.0468174731217</v>
+        <v>8.185407068500474</v>
       </c>
       <c r="M21">
-        <v>16.37495745504254</v>
+        <v>12.43654924503466</v>
       </c>
       <c r="N21">
-        <v>21.11418672785151</v>
+        <v>12.91527662113501</v>
       </c>
       <c r="O21">
-        <v>27.46872308347982</v>
+        <v>17.67501288445004</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.08413677750205</v>
+        <v>17.4684475051392</v>
       </c>
       <c r="C22">
-        <v>10.43306466264545</v>
+        <v>7.085174765366048</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.61420855012945</v>
+        <v>10.24383379103368</v>
       </c>
       <c r="F22">
-        <v>41.07692664427137</v>
+        <v>31.04427212012442</v>
       </c>
       <c r="G22">
-        <v>3.674034036127388</v>
+        <v>2.093552794545988</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.807238533060996</v>
+        <v>6.107889266910597</v>
       </c>
       <c r="K22">
-        <v>10.50477239934965</v>
+        <v>13.17351754622271</v>
       </c>
       <c r="L22">
-        <v>12.05704507441099</v>
+        <v>8.323531526922556</v>
       </c>
       <c r="M22">
-        <v>16.41430394980584</v>
+        <v>12.72680780929313</v>
       </c>
       <c r="N22">
-        <v>21.06939492680934</v>
+        <v>12.7457080760977</v>
       </c>
       <c r="O22">
-        <v>27.4239352332914</v>
+        <v>17.70944064052338</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.99735618987088</v>
+        <v>17.13903678062072</v>
       </c>
       <c r="C23">
-        <v>10.43602582410344</v>
+        <v>7.091069978115907</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.61489174627123</v>
+        <v>10.1831275179642</v>
       </c>
       <c r="F23">
-        <v>41.06907327437535</v>
+        <v>30.78427167393757</v>
       </c>
       <c r="G23">
-        <v>3.67467690737466</v>
+        <v>2.095463497564502</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.803905384830529</v>
+        <v>6.096035029123124</v>
       </c>
       <c r="K23">
-        <v>10.44322884261699</v>
+        <v>12.94683451932979</v>
       </c>
       <c r="L23">
-        <v>12.05147416547529</v>
+        <v>8.249832618995386</v>
       </c>
       <c r="M23">
-        <v>16.39314662348405</v>
+        <v>12.57233389134342</v>
       </c>
       <c r="N23">
-        <v>21.09316486312519</v>
+        <v>12.83606512362893</v>
       </c>
       <c r="O23">
-        <v>27.44746426989298</v>
+        <v>17.68974889278468</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.66817283286476</v>
+        <v>15.87497444638628</v>
       </c>
       <c r="C24">
-        <v>10.4479101035575</v>
+        <v>7.115151679332107</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.62087658185176</v>
+        <v>9.958208269841933</v>
       </c>
       <c r="F24">
-        <v>41.05355878890548</v>
+        <v>29.82426926798002</v>
       </c>
       <c r="G24">
-        <v>3.677207569871586</v>
+        <v>2.102821310078576</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.791198538140405</v>
+        <v>6.051005010043542</v>
       </c>
       <c r="K24">
-        <v>10.2092823299386</v>
+        <v>12.05307363949525</v>
       </c>
       <c r="L24">
-        <v>12.03285302217156</v>
+        <v>7.970445354517729</v>
       </c>
       <c r="M24">
-        <v>16.31651489868411</v>
+        <v>11.97796330583476</v>
       </c>
       <c r="N24">
-        <v>21.18619028230697</v>
+        <v>13.18163019698923</v>
       </c>
       <c r="O24">
-        <v>27.54481191590701</v>
+        <v>17.64341252802742</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.31383732070055</v>
+        <v>14.50023404609504</v>
       </c>
       <c r="C25">
-        <v>10.462168102726</v>
+        <v>7.144732020420492</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.63463255972512</v>
+        <v>9.726890268054531</v>
       </c>
       <c r="F25">
-        <v>41.06734660431608</v>
+        <v>28.84389365012097</v>
       </c>
       <c r="G25">
-        <v>3.68014355688809</v>
+        <v>2.111038576739169</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.777321118742009</v>
+        <v>6.002191900498203</v>
       </c>
       <c r="K25">
-        <v>9.956378575657904</v>
+        <v>11.01325162124154</v>
       </c>
       <c r="L25">
-        <v>12.01813272319781</v>
+        <v>7.669804225784896</v>
       </c>
       <c r="M25">
-        <v>16.24158204909106</v>
+        <v>11.3197421029136</v>
       </c>
       <c r="N25">
-        <v>21.29298464402561</v>
+        <v>13.56256727112791</v>
       </c>
       <c r="O25">
-        <v>27.66737729327744</v>
+        <v>17.64940492733533</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.41379229500737</v>
+        <v>21.08932514182865</v>
       </c>
       <c r="C2">
-        <v>7.169488660864663</v>
+        <v>13.78029393988503</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.566841884716776</v>
+        <v>10.48044132369432</v>
       </c>
       <c r="F2">
-        <v>28.17155083370582</v>
+        <v>23.36177104568335</v>
       </c>
       <c r="G2">
-        <v>2.117351679840564</v>
+        <v>18.25931600678171</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.39688923517236</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.766135547002733</v>
       </c>
       <c r="J2">
-        <v>5.966078525075773</v>
+        <v>8.108093814005601</v>
       </c>
       <c r="K2">
-        <v>10.18214005392854</v>
+        <v>13.3429254998741</v>
       </c>
       <c r="L2">
-        <v>7.450425310760508</v>
+        <v>5.849976907081506</v>
       </c>
       <c r="M2">
-        <v>10.82367715878582</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.85111324729235</v>
+        <v>8.546163278507876</v>
       </c>
       <c r="O2">
-        <v>17.69759696643426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.82230002189218</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.68236151383666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.63293396610555</v>
+        <v>19.72257303216903</v>
       </c>
       <c r="C3">
-        <v>7.188070058672083</v>
+        <v>13.36108993265371</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.465040112859265</v>
+        <v>10.43119303798906</v>
       </c>
       <c r="F3">
-        <v>27.74768193157821</v>
+        <v>23.05775178339286</v>
       </c>
       <c r="G3">
-        <v>2.121804004304796</v>
+        <v>18.10035746591073</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.591906831399701</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.910239372426858</v>
       </c>
       <c r="J3">
-        <v>5.941513306043658</v>
+        <v>8.17392512092502</v>
       </c>
       <c r="K3">
-        <v>9.57808174737824</v>
+        <v>13.57328097161305</v>
       </c>
       <c r="L3">
-        <v>7.303731055108946</v>
+        <v>5.725306649645712</v>
       </c>
       <c r="M3">
-        <v>10.48236342236522</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.05216730028128</v>
+        <v>8.298651215162193</v>
       </c>
       <c r="O3">
-        <v>17.75540881183582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.10539302115862</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.73692988139104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.13235993784346</v>
+        <v>18.8320216200903</v>
       </c>
       <c r="C4">
-        <v>7.200353134257566</v>
+        <v>13.09854837101833</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.405896680374024</v>
+        <v>10.40093152689602</v>
       </c>
       <c r="F4">
-        <v>27.50333309603436</v>
+        <v>22.87898354294913</v>
       </c>
       <c r="G4">
-        <v>2.124626607812246</v>
+        <v>18.0169364461526</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.715978711465695</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.002644496299023</v>
       </c>
       <c r="J4">
-        <v>5.926390877965568</v>
+        <v>8.217525673446263</v>
       </c>
       <c r="K4">
-        <v>9.187163519130028</v>
+        <v>13.71930537179958</v>
       </c>
       <c r="L4">
-        <v>7.214898030280096</v>
+        <v>5.646774891471899</v>
       </c>
       <c r="M4">
-        <v>10.27103484559633</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>14.17847631827651</v>
+        <v>8.143969062714984</v>
       </c>
       <c r="O4">
-        <v>17.8026087855953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.64515136388891</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.77764289710503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.92322755035061</v>
+        <v>18.45568736998858</v>
       </c>
       <c r="C5">
-        <v>7.205576223972825</v>
+        <v>12.99695821123301</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.382651384984031</v>
+        <v>10.38763313834318</v>
       </c>
       <c r="F5">
-        <v>27.40778565690643</v>
+        <v>22.80121663903557</v>
       </c>
       <c r="G5">
-        <v>2.125799616250974</v>
+        <v>17.97430837890825</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.767858279166963</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.044083268095462</v>
       </c>
       <c r="J5">
-        <v>5.920219384626998</v>
+        <v>8.234256838231907</v>
       </c>
       <c r="K5">
-        <v>9.02285426796559</v>
+        <v>13.77637331347538</v>
       </c>
       <c r="L5">
-        <v>7.179049356919553</v>
+        <v>5.615119214114909</v>
       </c>
       <c r="M5">
-        <v>10.18460025858143</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.23068791336179</v>
+        <v>8.082078698658748</v>
       </c>
       <c r="O5">
-        <v>17.82468347705113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.45408557730284</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.79127454303792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.88819622585338</v>
+        <v>18.39181402668562</v>
       </c>
       <c r="C6">
-        <v>7.20645659953478</v>
+        <v>12.98811501937152</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.378843498881647</v>
+        <v>10.3842519375601</v>
       </c>
       <c r="F6">
-        <v>27.39216381518406</v>
+        <v>22.77993723590082</v>
       </c>
       <c r="G6">
-        <v>2.125995781225772</v>
+        <v>17.95263749483863</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.77680365723797</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.054619638926214</v>
       </c>
       <c r="J6">
-        <v>5.9191940957927</v>
+        <v>8.234862943316429</v>
       </c>
       <c r="K6">
-        <v>8.995269508107011</v>
+        <v>13.78154939036551</v>
       </c>
       <c r="L6">
-        <v>7.173119117044768</v>
+        <v>5.610850849911028</v>
       </c>
       <c r="M6">
-        <v>10.1702326011386</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>14.23940285752934</v>
+        <v>8.073918789782001</v>
       </c>
       <c r="O6">
-        <v>17.82851754957059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.4237564427074</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.78789241339728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.12956008529283</v>
+        <v>18.82539798883385</v>
       </c>
       <c r="C7">
-        <v>7.200422696163081</v>
+        <v>13.11915981070188</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.405579707280637</v>
+        <v>10.39757882032138</v>
       </c>
       <c r="F7">
-        <v>27.50202817979295</v>
+        <v>22.85487389526016</v>
       </c>
       <c r="G7">
-        <v>2.124642334642683</v>
+        <v>17.976056289871</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.717377042154072</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.012708649529325</v>
       </c>
       <c r="J7">
-        <v>5.926307682261026</v>
+        <v>8.211694122438118</v>
       </c>
       <c r="K7">
-        <v>9.184967813593769</v>
+        <v>13.70813950552652</v>
       </c>
       <c r="L7">
-        <v>7.214413086142196</v>
+        <v>5.649131079264944</v>
       </c>
       <c r="M7">
-        <v>10.2698702668708</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14.17917744113876</v>
+        <v>8.148955615356851</v>
       </c>
       <c r="O7">
-        <v>17.80289512632651</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.64710510765397</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.76212677575914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.14902549406996</v>
+        <v>20.62677211918086</v>
       </c>
       <c r="C8">
-        <v>7.175712777708856</v>
+        <v>13.66532739014197</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.531049347604755</v>
+        <v>10.45939025824294</v>
       </c>
       <c r="F8">
-        <v>28.02211836691388</v>
+        <v>23.22547739598794</v>
       </c>
       <c r="G8">
-        <v>2.118868663442037</v>
+        <v>18.14894645974865</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.464096181557519</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.827214787876493</v>
       </c>
       <c r="J8">
-        <v>5.957617137600524</v>
+        <v>8.122130852442547</v>
       </c>
       <c r="K8">
-        <v>9.978030017129305</v>
+        <v>13.40562567621624</v>
       </c>
       <c r="L8">
-        <v>7.399612314416985</v>
+        <v>5.811102315576062</v>
       </c>
       <c r="M8">
-        <v>10.70643059734055</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>13.91985533749112</v>
+        <v>8.468859237345589</v>
       </c>
       <c r="O8">
-        <v>17.71503920055805</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.5849020204276</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.67893560664729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.97502160873182</v>
+        <v>23.75556801199212</v>
       </c>
       <c r="C9">
-        <v>7.134297749273411</v>
+        <v>14.65384163662308</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.803251271101869</v>
+        <v>10.58594654930298</v>
       </c>
       <c r="F9">
-        <v>29.16657927441529</v>
+        <v>24.05318768881614</v>
       </c>
       <c r="G9">
-        <v>2.108231135974559</v>
+        <v>18.67509751116656</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.000005924285888</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.479512999261059</v>
       </c>
       <c r="J9">
-        <v>6.018663770323746</v>
+        <v>7.983544522066671</v>
       </c>
       <c r="K9">
-        <v>11.3736805621307</v>
+        <v>12.87063649008712</v>
       </c>
       <c r="L9">
-        <v>7.770863197337348</v>
+        <v>6.107319744541432</v>
       </c>
       <c r="M9">
-        <v>11.54347990132212</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>13.43306100353421</v>
+        <v>9.062060217816306</v>
       </c>
       <c r="O9">
-        <v>17.64029562379751</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.25229269699101</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.6041720144857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.20563151256694</v>
+        <v>25.82070634035014</v>
       </c>
       <c r="C10">
-        <v>7.108325343360502</v>
+        <v>15.42053610501117</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.01839490082492</v>
+        <v>10.61088705149671</v>
       </c>
       <c r="F10">
-        <v>30.08059918391093</v>
+        <v>24.51046417332214</v>
       </c>
       <c r="G10">
-        <v>2.100803184751349</v>
+        <v>18.95897483627355</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.709188510484741</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.711808766800412</v>
       </c>
       <c r="J10">
-        <v>6.063247897540798</v>
+        <v>7.871289288085888</v>
       </c>
       <c r="K10">
-        <v>12.30159730469817</v>
+        <v>12.44987045429232</v>
       </c>
       <c r="L10">
-        <v>8.046280671321544</v>
+        <v>6.341633639071221</v>
       </c>
       <c r="M10">
-        <v>12.14077016281214</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.08724130323015</v>
+        <v>9.400772709178035</v>
       </c>
       <c r="O10">
-        <v>17.65137855232857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.32042646580188</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.51801441117286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.78397596377981</v>
+        <v>26.81310479407044</v>
       </c>
       <c r="C11">
-        <v>7.097518194936929</v>
+        <v>16.34207559050678</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.11937395028693</v>
+        <v>10.12392969930825</v>
       </c>
       <c r="F11">
-        <v>30.51160294844965</v>
+        <v>23.18666816913153</v>
       </c>
       <c r="G11">
-        <v>2.097501183668618</v>
+        <v>17.67071173442613</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.726451649247896</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.793043911386562</v>
       </c>
       <c r="J11">
-        <v>6.08346042969734</v>
+        <v>7.599052161251378</v>
       </c>
       <c r="K11">
-        <v>12.70267474601222</v>
+        <v>11.87790328014427</v>
       </c>
       <c r="L11">
-        <v>8.171704445529066</v>
+        <v>6.692494830072093</v>
       </c>
       <c r="M11">
-        <v>12.40757589708567</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.93215483641452</v>
+        <v>8.863647207790919</v>
       </c>
       <c r="O11">
-        <v>17.67218273413695</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>16.3300956112853</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.90306128612045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.0004942047899</v>
+        <v>27.23551706844916</v>
       </c>
       <c r="C12">
-        <v>7.093574608026626</v>
+        <v>16.95340419063956</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.15804252542855</v>
+        <v>9.831870527456092</v>
       </c>
       <c r="F12">
-        <v>30.67693696008631</v>
+        <v>21.99560051227627</v>
       </c>
       <c r="G12">
-        <v>2.096261273481203</v>
+        <v>16.55994246349772</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.122716680181608</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.810293692751738</v>
       </c>
       <c r="J12">
-        <v>6.09110331190739</v>
+        <v>7.40156746086988</v>
       </c>
       <c r="K12">
-        <v>12.85154274633413</v>
+        <v>11.53531814190238</v>
       </c>
       <c r="L12">
-        <v>8.219183899262843</v>
+        <v>6.956382188044374</v>
       </c>
       <c r="M12">
-        <v>12.50782725552647</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>12.87371930645226</v>
+        <v>8.340202429483766</v>
       </c>
       <c r="O12">
-        <v>17.68244649907015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>16.10575804759895</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.42182141755427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.95406608545497</v>
+        <v>27.25753708586375</v>
       </c>
       <c r="C13">
-        <v>7.094417243413558</v>
+        <v>17.40019438536352</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.14969570410494</v>
+        <v>9.675409780519505</v>
       </c>
       <c r="F13">
-        <v>30.64123596432725</v>
+        <v>20.79397999774461</v>
       </c>
       <c r="G13">
-        <v>2.096527853689245</v>
+        <v>15.44632939155158</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.555327251974672</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.784676271833527</v>
       </c>
       <c r="J13">
-        <v>6.089457797282665</v>
+        <v>7.241170972775025</v>
       </c>
       <c r="K13">
-        <v>12.81961501834845</v>
+        <v>11.33538694624999</v>
       </c>
       <c r="L13">
-        <v>8.208959585835434</v>
+        <v>7.17344705608199</v>
       </c>
       <c r="M13">
-        <v>12.48627223510993</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>12.8862919069254</v>
+        <v>7.799558758881689</v>
       </c>
       <c r="O13">
-        <v>17.68012800551509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.68702662650164</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.99114309326735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.80188057691381</v>
+        <v>27.09199599639269</v>
       </c>
       <c r="C14">
-        <v>7.097190746714835</v>
+        <v>17.64974727912176</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.12254671747672</v>
+        <v>9.647018655137849</v>
       </c>
       <c r="F14">
-        <v>30.52516291496628</v>
+        <v>19.94707712236964</v>
       </c>
       <c r="G14">
-        <v>2.097398968847132</v>
+        <v>14.65710583747466</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.568657921879713</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.748730327289111</v>
       </c>
       <c r="J14">
-        <v>6.084089445249254</v>
+        <v>7.145950263793745</v>
       </c>
       <c r="K14">
-        <v>12.71498246157079</v>
+        <v>11.2662939650469</v>
       </c>
       <c r="L14">
-        <v>8.175611118189396</v>
+        <v>7.307542907268692</v>
       </c>
       <c r="M14">
-        <v>12.41583971683969</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.9273416181649</v>
+        <v>7.41766509279944</v>
       </c>
       <c r="O14">
-        <v>17.67297864284387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.30112479589894</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.71293499574519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.70806745212154</v>
+        <v>26.96468602745557</v>
       </c>
       <c r="C15">
-        <v>7.098909104738585</v>
+        <v>17.6820900953944</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.10597266958976</v>
+        <v>9.651813238693654</v>
       </c>
       <c r="F15">
-        <v>30.45433927544494</v>
+        <v>19.7338460891719</v>
       </c>
       <c r="G15">
-        <v>2.097933899581818</v>
+        <v>14.45463274250853</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.804474463067995</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.732224444615788</v>
       </c>
       <c r="J15">
-        <v>6.08079968300489</v>
+        <v>7.129159586799832</v>
       </c>
       <c r="K15">
-        <v>12.65050032649402</v>
+        <v>11.27368725411157</v>
       </c>
       <c r="L15">
-        <v>8.155181158515402</v>
+        <v>7.329256892038603</v>
       </c>
       <c r="M15">
-        <v>12.37259379518407</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.95252296081971</v>
+        <v>7.32148783347243</v>
       </c>
       <c r="O15">
-        <v>17.66891368501429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>15.16649581069661</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.65234161730149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.17016156217078</v>
+        <v>26.12310498929029</v>
       </c>
       <c r="C16">
-        <v>7.109052222379029</v>
+        <v>17.2999704360781</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.01185678810157</v>
+        <v>9.666535175809718</v>
       </c>
       <c r="F16">
-        <v>30.05273259277508</v>
+        <v>19.75134864187056</v>
       </c>
       <c r="G16">
-        <v>2.101020478435451</v>
+        <v>14.50774356425868</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.605021445436718</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.640550217636174</v>
       </c>
       <c r="J16">
-        <v>6.061925467252544</v>
+        <v>7.207739707965113</v>
       </c>
       <c r="K16">
-        <v>12.27496370003952</v>
+        <v>11.4930217718711</v>
       </c>
       <c r="L16">
-        <v>8.03808358109808</v>
+        <v>7.192321311682963</v>
       </c>
       <c r="M16">
-        <v>12.12322827814066</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.09741904785113</v>
+        <v>7.275035946868807</v>
       </c>
       <c r="O16">
-        <v>17.65034628727602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.78544935674997</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.76913941576904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.85654312392443</v>
+        <v>25.55441715729407</v>
       </c>
       <c r="C17">
-        <v>7.115535494596798</v>
+        <v>16.86529458904601</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.954903958382978</v>
+        <v>9.681569362654582</v>
       </c>
       <c r="F17">
-        <v>29.81020957608855</v>
+        <v>20.21553151776336</v>
       </c>
       <c r="G17">
-        <v>2.102933310985086</v>
+        <v>14.97146421828534</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.883391693072157</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.589618265932716</v>
       </c>
       <c r="J17">
-        <v>6.050328202744744</v>
+        <v>7.317623754716784</v>
       </c>
       <c r="K17">
-        <v>12.03920433714694</v>
+        <v>11.69294596428102</v>
       </c>
       <c r="L17">
-        <v>7.966256739357966</v>
+        <v>7.011950224463001</v>
       </c>
       <c r="M17">
-        <v>11.96893642806497</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>13.18685941761842</v>
+        <v>7.4431782310964</v>
       </c>
       <c r="O17">
-        <v>17.64307734585764</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.70322942078597</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.00421191963222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.67383196867447</v>
+        <v>25.17000947909602</v>
       </c>
       <c r="C18">
-        <v>7.119359105831995</v>
+        <v>16.32754459585393</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.922439886425172</v>
+        <v>9.767671679778697</v>
       </c>
       <c r="F18">
-        <v>29.67215250641657</v>
+        <v>21.13827094083428</v>
       </c>
       <c r="G18">
-        <v>2.10404080747448</v>
+        <v>15.8654544117167</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.659145513557837</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.564749572749119</v>
       </c>
       <c r="J18">
-        <v>6.043651344347064</v>
+        <v>7.472139770657826</v>
       </c>
       <c r="K18">
-        <v>11.90162056936074</v>
+        <v>11.92507413327675</v>
       </c>
       <c r="L18">
-        <v>7.924958503569919</v>
+        <v>6.779131350699663</v>
       </c>
       <c r="M18">
-        <v>11.8797341282032</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>13.23851470324145</v>
+        <v>7.824416274349392</v>
       </c>
       <c r="O18">
-        <v>17.6403728983502</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.86823349124883</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.38045905170453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.61157087897678</v>
+        <v>24.96690581291731</v>
       </c>
       <c r="C19">
-        <v>7.120669850112287</v>
+        <v>15.80690155451204</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.911499069258891</v>
+        <v>9.999535337225659</v>
       </c>
       <c r="F19">
-        <v>29.62565733444033</v>
+        <v>22.33780335381016</v>
       </c>
       <c r="G19">
-        <v>2.104417055477945</v>
+        <v>16.97524765326044</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.227564811459634</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.575340321489723</v>
       </c>
       <c r="J19">
-        <v>6.041389609517696</v>
+        <v>7.6446263558791</v>
       </c>
       <c r="K19">
-        <v>11.85469645773241</v>
+        <v>12.18313548984271</v>
       </c>
       <c r="L19">
-        <v>7.910979262963693</v>
+        <v>6.541652933300364</v>
       </c>
       <c r="M19">
-        <v>11.84945566257058</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>13.25604145968327</v>
+        <v>8.372208553960377</v>
       </c>
       <c r="O19">
-        <v>17.63970718947708</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.22062865209508</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.82391318377706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.89016937983519</v>
+        <v>25.2917857705399</v>
       </c>
       <c r="C20">
-        <v>7.114835520825228</v>
+        <v>15.28760544916033</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.960936412060054</v>
+        <v>10.59244933146075</v>
       </c>
       <c r="F20">
-        <v>29.83587844328736</v>
+        <v>24.31428200326612</v>
       </c>
       <c r="G20">
-        <v>2.102728936795845</v>
+        <v>18.75460144584343</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.785031250226793</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.664319474422825</v>
       </c>
       <c r="J20">
-        <v>6.051563424499776</v>
+        <v>7.879796306768395</v>
       </c>
       <c r="K20">
-        <v>12.06450628862868</v>
+        <v>12.51999346183989</v>
       </c>
       <c r="L20">
-        <v>7.973901574760569</v>
+        <v>6.290713256830472</v>
       </c>
       <c r="M20">
-        <v>11.98540901977475</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>13.17731664139546</v>
+        <v>9.325118994629241</v>
       </c>
       <c r="O20">
-        <v>17.6436974701499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.05546483072811</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.48685077768427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.84670508345334</v>
+        <v>26.78117627632873</v>
       </c>
       <c r="C21">
-        <v>7.096372028727786</v>
+        <v>15.75432361872281</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.13050949934382</v>
+        <v>10.7169987227572</v>
       </c>
       <c r="F21">
-        <v>30.55919930204742</v>
+        <v>24.9616311423911</v>
       </c>
       <c r="G21">
-        <v>2.097142821479463</v>
+        <v>19.27140443711036</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.597526611533273</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.84200778978697</v>
       </c>
       <c r="J21">
-        <v>6.085666573501843</v>
+        <v>7.842313726589029</v>
       </c>
       <c r="K21">
-        <v>12.74579717286477</v>
+        <v>12.28229262296056</v>
       </c>
       <c r="L21">
-        <v>8.185407068500474</v>
+        <v>6.424383636401028</v>
       </c>
       <c r="M21">
-        <v>12.43654924503466</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.91527662113501</v>
+        <v>9.701503455052766</v>
       </c>
       <c r="O21">
-        <v>17.67501288445004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>16.92035579548817</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.54603743799341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.4684475051392</v>
+        <v>27.71858345597822</v>
       </c>
       <c r="C22">
-        <v>7.085174765366048</v>
+        <v>16.05957461099462</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.24383379103368</v>
+        <v>10.76800423765888</v>
       </c>
       <c r="F22">
-        <v>31.04427212012442</v>
+        <v>25.3268524280268</v>
       </c>
       <c r="G22">
-        <v>2.093552794545988</v>
+        <v>19.58875570963374</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.748579305828501</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.949856812623096</v>
       </c>
       <c r="J22">
-        <v>6.107889266910597</v>
+        <v>7.816591186120755</v>
       </c>
       <c r="K22">
-        <v>13.17351754622271</v>
+        <v>12.12457768608965</v>
       </c>
       <c r="L22">
-        <v>8.323531526922556</v>
+        <v>6.519499465847225</v>
       </c>
       <c r="M22">
-        <v>12.72680780929313</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>12.7457080760977</v>
+        <v>9.895161839250409</v>
       </c>
       <c r="O22">
-        <v>17.70944064052338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>17.43391159937194</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.58031419280966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.13903678062072</v>
+        <v>27.22361110966286</v>
       </c>
       <c r="C23">
-        <v>7.091069978115907</v>
+        <v>15.87416505843312</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.1831275179642</v>
+        <v>10.74408844315848</v>
       </c>
       <c r="F23">
-        <v>30.78427167393757</v>
+        <v>25.15570354351902</v>
       </c>
       <c r="G23">
-        <v>2.095463497564502</v>
+        <v>19.46119629613938</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.668813617052298</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.887639314196409</v>
       </c>
       <c r="J23">
-        <v>6.096035029123124</v>
+        <v>7.837047420171716</v>
       </c>
       <c r="K23">
-        <v>12.94683451932979</v>
+        <v>12.22253805644223</v>
       </c>
       <c r="L23">
-        <v>8.249832618995386</v>
+        <v>6.465728442581002</v>
       </c>
       <c r="M23">
-        <v>12.57233389134342</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>12.83606512362893</v>
+        <v>9.786349735800147</v>
       </c>
       <c r="O23">
-        <v>17.68974889278468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.15775744515091</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.57924795140194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.87497444638628</v>
+        <v>25.25887139352148</v>
       </c>
       <c r="C24">
-        <v>7.115151679332107</v>
+        <v>15.19402885477619</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.958208269841933</v>
+        <v>10.6485512857915</v>
       </c>
       <c r="F24">
-        <v>29.82426926798002</v>
+        <v>24.48114272507713</v>
       </c>
       <c r="G24">
-        <v>2.102821310078576</v>
+        <v>18.94110968932044</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.766636678182078</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.655798841580467</v>
       </c>
       <c r="J24">
-        <v>6.051005010043542</v>
+        <v>7.91106155124832</v>
       </c>
       <c r="K24">
-        <v>12.05307363949525</v>
+        <v>12.58094474483974</v>
       </c>
       <c r="L24">
-        <v>7.970445354517729</v>
+        <v>6.262655133562851</v>
       </c>
       <c r="M24">
-        <v>11.97796330583476</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>13.18163019698923</v>
+        <v>9.374977037679914</v>
       </c>
       <c r="O24">
-        <v>17.64341252802742</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.07729594132043</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.56528601168114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.50023404609504</v>
+        <v>22.95004251264606</v>
       </c>
       <c r="C25">
-        <v>7.144732020420492</v>
+        <v>14.42923612321162</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.726890268054531</v>
+        <v>10.54635280132018</v>
       </c>
       <c r="F25">
-        <v>28.84389365012097</v>
+        <v>23.78357475672051</v>
       </c>
       <c r="G25">
-        <v>2.111038576739169</v>
+        <v>18.44989063046703</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.123084043653185</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.587768313830054</v>
       </c>
       <c r="J25">
-        <v>6.002191900498203</v>
+        <v>8.007195214529943</v>
       </c>
       <c r="K25">
-        <v>11.01325162124154</v>
+        <v>12.98978797714991</v>
       </c>
       <c r="L25">
-        <v>7.669804225784896</v>
+        <v>6.03405440492746</v>
       </c>
       <c r="M25">
-        <v>11.3197421029136</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>13.56256727112791</v>
+        <v>8.914207118343427</v>
       </c>
       <c r="O25">
-        <v>17.64940492733533</v>
+        <v>14.82632621771012</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.58936831520078</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.08932514182865</v>
+        <v>21.11898847409167</v>
       </c>
       <c r="C2">
-        <v>13.78029393988503</v>
+        <v>13.66620456767475</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.48044132369432</v>
+        <v>10.40855661331106</v>
       </c>
       <c r="F2">
-        <v>23.36177104568335</v>
+        <v>23.08129389005668</v>
       </c>
       <c r="G2">
-        <v>18.25931600678171</v>
+        <v>17.0678307376249</v>
       </c>
       <c r="H2">
-        <v>2.39688923517236</v>
+        <v>2.339282026894876</v>
       </c>
       <c r="I2">
-        <v>2.766135547002733</v>
+        <v>2.683598580301752</v>
       </c>
       <c r="J2">
-        <v>8.108093814005601</v>
+        <v>8.534113624857753</v>
       </c>
       <c r="K2">
-        <v>13.3429254998741</v>
+        <v>13.03902419777141</v>
       </c>
       <c r="L2">
-        <v>5.849976907081506</v>
+        <v>11.08916863067139</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.152785403885849</v>
       </c>
       <c r="N2">
-        <v>8.546163278507876</v>
+        <v>5.84439710801789</v>
       </c>
       <c r="O2">
-        <v>13.82230002189218</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.664973659795962</v>
       </c>
       <c r="Q2">
-        <v>12.68236151383666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.85867335792428</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.47097249280782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.72257303216903</v>
+        <v>19.76165967130249</v>
       </c>
       <c r="C3">
-        <v>13.36108993265371</v>
+        <v>13.17066605874085</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.43119303798906</v>
+        <v>10.37191689949682</v>
       </c>
       <c r="F3">
-        <v>23.05775178339286</v>
+        <v>22.81161689942112</v>
       </c>
       <c r="G3">
-        <v>18.10035746591073</v>
+        <v>16.96991916553404</v>
       </c>
       <c r="H3">
-        <v>2.591906831399701</v>
+        <v>2.523881521703862</v>
       </c>
       <c r="I3">
-        <v>2.910239372426858</v>
+        <v>2.812836921164312</v>
       </c>
       <c r="J3">
-        <v>8.17392512092502</v>
+        <v>8.573020303363364</v>
       </c>
       <c r="K3">
-        <v>13.57328097161305</v>
+        <v>13.26940681499251</v>
       </c>
       <c r="L3">
-        <v>5.725306649645712</v>
+        <v>11.28630359088701</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.344339585603443</v>
       </c>
       <c r="N3">
-        <v>8.298651215162193</v>
+        <v>5.70781056812281</v>
       </c>
       <c r="O3">
-        <v>13.10539302115862</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.415530245747114</v>
       </c>
       <c r="Q3">
-        <v>12.73692988139104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.13151222518946</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.54033130761449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.8320216200903</v>
+        <v>18.87741035909022</v>
       </c>
       <c r="C4">
-        <v>13.09854837101833</v>
+        <v>12.86002197252974</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.40093152689602</v>
+        <v>10.34955745006369</v>
       </c>
       <c r="F4">
-        <v>22.87898354294913</v>
+        <v>22.65291537006075</v>
       </c>
       <c r="G4">
-        <v>18.0169364461526</v>
+        <v>16.92489865696599</v>
       </c>
       <c r="H4">
-        <v>2.715978711465695</v>
+        <v>2.641354119420225</v>
       </c>
       <c r="I4">
-        <v>3.002644496299023</v>
+        <v>2.896024974861008</v>
       </c>
       <c r="J4">
-        <v>8.217525673446263</v>
+        <v>8.598358973060687</v>
       </c>
       <c r="K4">
-        <v>13.71930537179958</v>
+        <v>13.41449305117971</v>
       </c>
       <c r="L4">
-        <v>5.646774891471899</v>
+        <v>11.41290868371814</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.478436879675513</v>
       </c>
       <c r="N4">
-        <v>8.143969062714984</v>
+        <v>5.621902834643104</v>
       </c>
       <c r="O4">
-        <v>12.64515136388891</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.260113337073244</v>
       </c>
       <c r="Q4">
-        <v>12.77764289710503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.66442559590568</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.58873048558095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.45568736998858</v>
+        <v>18.5037898518822</v>
       </c>
       <c r="C5">
-        <v>12.99695821123301</v>
+        <v>12.73880988759254</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.38763313834318</v>
+        <v>10.33954377997384</v>
       </c>
       <c r="F5">
-        <v>22.80121663903557</v>
+        <v>22.58315731366996</v>
       </c>
       <c r="G5">
-        <v>17.97430837890825</v>
+        <v>16.89792714852523</v>
       </c>
       <c r="H5">
-        <v>2.767858279166963</v>
+        <v>2.690489700156402</v>
       </c>
       <c r="I5">
-        <v>3.044083268095462</v>
+        <v>2.9341823403349</v>
       </c>
       <c r="J5">
-        <v>8.234256838231907</v>
+        <v>8.607265809651571</v>
       </c>
       <c r="K5">
-        <v>13.77637331347538</v>
+        <v>13.47106819022525</v>
       </c>
       <c r="L5">
-        <v>5.615119214114909</v>
+        <v>11.46211201398767</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.535796018377425</v>
       </c>
       <c r="N5">
-        <v>8.082078698658748</v>
+        <v>5.587239608386443</v>
       </c>
       <c r="O5">
-        <v>12.45408557730284</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>8.197999787001715</v>
       </c>
       <c r="Q5">
-        <v>12.79127454303792</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.47041398454479</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.60523208251889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.39181402668562</v>
+        <v>18.44037859831699</v>
       </c>
       <c r="C6">
-        <v>12.98811501937152</v>
+        <v>12.72698699122628</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.3842519375601</v>
+        <v>10.33674117336181</v>
       </c>
       <c r="F6">
-        <v>22.77993723590082</v>
+        <v>22.56332138285216</v>
       </c>
       <c r="G6">
-        <v>17.95263749483863</v>
+        <v>16.87867772572235</v>
       </c>
       <c r="H6">
-        <v>2.77680365723797</v>
+        <v>2.698973213102554</v>
       </c>
       <c r="I6">
-        <v>3.054619638926214</v>
+        <v>2.944829440851843</v>
       </c>
       <c r="J6">
-        <v>8.234862943316429</v>
+        <v>8.606594739471497</v>
       </c>
       <c r="K6">
-        <v>13.78154939036551</v>
+        <v>13.47629603997444</v>
       </c>
       <c r="L6">
-        <v>5.610850849911028</v>
+        <v>11.4657591408072</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.543969674628912</v>
       </c>
       <c r="N6">
-        <v>8.073918789782001</v>
+        <v>5.582480310358161</v>
       </c>
       <c r="O6">
-        <v>12.4237564427074</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>8.189755827443184</v>
       </c>
       <c r="Q6">
-        <v>12.78789241339728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.43956166413635</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.60240496734662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.82539798883385</v>
+        <v>18.87039284883058</v>
       </c>
       <c r="C7">
-        <v>13.11915981070188</v>
+        <v>12.87536894549085</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.39757882032138</v>
+        <v>10.34749201479708</v>
       </c>
       <c r="F7">
-        <v>22.85487389526016</v>
+        <v>22.620105946608</v>
       </c>
       <c r="G7">
-        <v>17.976056289871</v>
+        <v>16.95902016408933</v>
       </c>
       <c r="H7">
-        <v>2.717377042154072</v>
+        <v>2.643098589937837</v>
       </c>
       <c r="I7">
-        <v>3.012708649529325</v>
+        <v>2.908225821248439</v>
       </c>
       <c r="J7">
-        <v>8.211694122438118</v>
+        <v>8.562365966241996</v>
       </c>
       <c r="K7">
-        <v>13.70813950552652</v>
+        <v>13.39972996236734</v>
       </c>
       <c r="L7">
-        <v>5.649131079264944</v>
+        <v>11.397041933831</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.472794954619845</v>
       </c>
       <c r="N7">
-        <v>8.148955615356851</v>
+        <v>5.625460012431808</v>
       </c>
       <c r="O7">
-        <v>12.64710510765397</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>8.266025329805288</v>
       </c>
       <c r="Q7">
-        <v>12.76212677575914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.66721028495773</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.5643626757443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.62677211918086</v>
+        <v>20.65827739876296</v>
       </c>
       <c r="C8">
-        <v>13.66532739014197</v>
+        <v>13.5077365475747</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.45939025824294</v>
+        <v>10.39589180156763</v>
       </c>
       <c r="F8">
-        <v>23.22547739598794</v>
+        <v>22.92776565225754</v>
       </c>
       <c r="G8">
-        <v>18.14894645974865</v>
+        <v>17.22711951550989</v>
       </c>
       <c r="H8">
-        <v>2.464096181557519</v>
+        <v>2.404122969875169</v>
       </c>
       <c r="I8">
-        <v>2.827214787876493</v>
+        <v>2.743176450185681</v>
       </c>
       <c r="J8">
-        <v>8.122130852442547</v>
+        <v>8.441230087113363</v>
       </c>
       <c r="K8">
-        <v>13.40562567621624</v>
+        <v>13.08962875035806</v>
       </c>
       <c r="L8">
-        <v>5.811102315576062</v>
+        <v>11.12925045075908</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.199726284615821</v>
       </c>
       <c r="N8">
-        <v>8.468859237345589</v>
+        <v>5.805532870450277</v>
       </c>
       <c r="O8">
-        <v>13.5849020204276</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.590213466454443</v>
       </c>
       <c r="Q8">
-        <v>12.67893560664729</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.62063915840417</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.44304608172946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.75556801199212</v>
+        <v>23.76577186229597</v>
       </c>
       <c r="C9">
-        <v>14.65384163662308</v>
+        <v>14.67356038145087</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.58594654930298</v>
+        <v>10.49303246754364</v>
       </c>
       <c r="F9">
-        <v>24.05318768881614</v>
+        <v>23.65783665986407</v>
       </c>
       <c r="G9">
-        <v>18.67509751116656</v>
+        <v>17.67088616310159</v>
       </c>
       <c r="H9">
-        <v>2.000005924285888</v>
+        <v>1.965144746403694</v>
       </c>
       <c r="I9">
-        <v>2.479512999261059</v>
+        <v>2.534954708813211</v>
       </c>
       <c r="J9">
-        <v>7.983544522066671</v>
+        <v>8.331975465655136</v>
       </c>
       <c r="K9">
-        <v>12.87063649008712</v>
+        <v>12.54484747143758</v>
       </c>
       <c r="L9">
-        <v>6.107319744541432</v>
+        <v>10.68276760829981</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.818730719823688</v>
       </c>
       <c r="N9">
-        <v>9.062060217816306</v>
+        <v>6.131959691751518</v>
       </c>
       <c r="O9">
-        <v>15.25229269699101</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.19130040485509</v>
       </c>
       <c r="Q9">
-        <v>12.6041720144857</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.31089932905679</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.31470091251066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.82070634035014</v>
+        <v>25.81553161695413</v>
       </c>
       <c r="C10">
-        <v>15.42053610501117</v>
+        <v>15.52694123290846</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.61088705149671</v>
+        <v>10.50611272754103</v>
       </c>
       <c r="F10">
-        <v>24.51046417332214</v>
+        <v>24.00166757049248</v>
       </c>
       <c r="G10">
-        <v>18.95897483627355</v>
+        <v>18.33628883452285</v>
       </c>
       <c r="H10">
-        <v>1.709188510484741</v>
+        <v>1.693481656477711</v>
       </c>
       <c r="I10">
-        <v>2.711808766800412</v>
+        <v>2.743203283292758</v>
       </c>
       <c r="J10">
-        <v>7.871289288085888</v>
+        <v>8.07403486056768</v>
       </c>
       <c r="K10">
-        <v>12.44987045429232</v>
+        <v>12.0980973768049</v>
       </c>
       <c r="L10">
-        <v>6.341633639071221</v>
+        <v>10.34032847077059</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.571956489363145</v>
       </c>
       <c r="N10">
-        <v>9.400772709178035</v>
+        <v>6.394555393634921</v>
       </c>
       <c r="O10">
-        <v>16.32042646580188</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.540468152997676</v>
       </c>
       <c r="Q10">
-        <v>12.51801441117286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.39558595633664</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.1370944767993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.81310479407044</v>
+        <v>26.80247225249524</v>
       </c>
       <c r="C11">
-        <v>16.34207559050678</v>
+        <v>16.38027554415512</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.12392969930825</v>
+        <v>10.03211028729228</v>
       </c>
       <c r="F11">
-        <v>23.18666816913153</v>
+        <v>22.63240802530338</v>
       </c>
       <c r="G11">
-        <v>17.67071173442613</v>
+        <v>18.05248762279744</v>
       </c>
       <c r="H11">
-        <v>2.726451649247896</v>
+        <v>2.722197884481332</v>
       </c>
       <c r="I11">
-        <v>2.793043911386562</v>
+        <v>2.815545330651865</v>
       </c>
       <c r="J11">
-        <v>7.599052161251378</v>
+        <v>7.574043585122764</v>
       </c>
       <c r="K11">
-        <v>11.87790328014427</v>
+        <v>11.56421029235649</v>
       </c>
       <c r="L11">
-        <v>6.692494830072093</v>
+        <v>9.996862583994481</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.142915056745156</v>
       </c>
       <c r="N11">
-        <v>8.863647207790919</v>
+        <v>6.768694490475194</v>
       </c>
       <c r="O11">
-        <v>16.3300956112853</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.996132626100357</v>
       </c>
       <c r="Q11">
-        <v>11.90306128612045</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>16.40625677257956</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.46368346175378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.23551706844916</v>
+        <v>27.22444323699176</v>
       </c>
       <c r="C12">
-        <v>16.95340419063956</v>
+        <v>16.92579573078266</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.831870527456092</v>
+        <v>9.741116178596396</v>
       </c>
       <c r="F12">
-        <v>21.99560051227627</v>
+        <v>21.45931904865071</v>
       </c>
       <c r="G12">
-        <v>16.55994246349772</v>
+        <v>17.44350023800162</v>
       </c>
       <c r="H12">
-        <v>4.122716680181608</v>
+        <v>4.121036638135618</v>
       </c>
       <c r="I12">
-        <v>2.810293692751738</v>
+        <v>2.82923924569373</v>
       </c>
       <c r="J12">
-        <v>7.40156746086988</v>
+        <v>7.346553023737484</v>
       </c>
       <c r="K12">
-        <v>11.53531814190238</v>
+        <v>11.27494249014986</v>
       </c>
       <c r="L12">
-        <v>6.956382188044374</v>
+        <v>9.835199928653417</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.871590678283022</v>
       </c>
       <c r="N12">
-        <v>8.340202429483766</v>
+        <v>7.040771931628129</v>
       </c>
       <c r="O12">
-        <v>16.10575804759895</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.460260492581446</v>
       </c>
       <c r="Q12">
-        <v>11.42182141755427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.17703592613764</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.98913362735708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.25753708586375</v>
+        <v>27.25056047744067</v>
       </c>
       <c r="C13">
-        <v>17.40019438536352</v>
+        <v>17.32050894350828</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.675409780519505</v>
+        <v>9.581714591609522</v>
       </c>
       <c r="F13">
-        <v>20.79397999774461</v>
+        <v>20.34449811038531</v>
       </c>
       <c r="G13">
-        <v>15.44632939155158</v>
+        <v>16.27912722830187</v>
       </c>
       <c r="H13">
-        <v>5.555327251974672</v>
+        <v>5.55335759825715</v>
       </c>
       <c r="I13">
-        <v>2.784676271833527</v>
+        <v>2.806244869337665</v>
       </c>
       <c r="J13">
-        <v>7.241170972775025</v>
+        <v>7.29021750158112</v>
       </c>
       <c r="K13">
-        <v>11.33538694624999</v>
+        <v>11.13853665722021</v>
       </c>
       <c r="L13">
-        <v>7.17344705608199</v>
+        <v>9.767731298287899</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.710388323343966</v>
       </c>
       <c r="N13">
-        <v>7.799558758881689</v>
+        <v>7.249784098043579</v>
       </c>
       <c r="O13">
-        <v>15.68702662650164</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.901025497039715</v>
       </c>
       <c r="Q13">
-        <v>10.99114309326735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.74657526829085</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.63396981075458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.09199599639269</v>
+        <v>27.0899377738727</v>
       </c>
       <c r="C14">
-        <v>17.64974727912176</v>
+        <v>17.53942601638024</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.647018655137849</v>
+        <v>9.553235022048741</v>
       </c>
       <c r="F14">
-        <v>19.94707712236964</v>
+        <v>19.58607809067517</v>
       </c>
       <c r="G14">
-        <v>14.65710583747466</v>
+        <v>15.21263086976074</v>
       </c>
       <c r="H14">
-        <v>6.568657921879713</v>
+        <v>6.565926991335474</v>
       </c>
       <c r="I14">
-        <v>2.748730327289111</v>
+        <v>2.775254422006193</v>
       </c>
       <c r="J14">
-        <v>7.145950263793745</v>
+        <v>7.309623488916738</v>
       </c>
       <c r="K14">
-        <v>11.2662939650469</v>
+        <v>11.11024356476712</v>
       </c>
       <c r="L14">
-        <v>7.307542907268692</v>
+        <v>9.754828279224053</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.655091923333903</v>
       </c>
       <c r="N14">
-        <v>7.41766509279944</v>
+        <v>7.370151588774185</v>
       </c>
       <c r="O14">
-        <v>15.30112479589894</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.504341746367084</v>
       </c>
       <c r="Q14">
-        <v>10.71293499574519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>15.3492061824108</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.43461931537707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.96468602745557</v>
+        <v>26.96477645835262</v>
       </c>
       <c r="C15">
-        <v>17.6820900953944</v>
+        <v>17.56733794528032</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.651813238693654</v>
+        <v>9.559636066157026</v>
       </c>
       <c r="F15">
-        <v>19.7338460891719</v>
+        <v>19.40607593601578</v>
       </c>
       <c r="G15">
-        <v>14.45463274250853</v>
+        <v>14.84239236270716</v>
       </c>
       <c r="H15">
-        <v>6.804474463067995</v>
+        <v>6.801274532432294</v>
       </c>
       <c r="I15">
-        <v>2.732224444615788</v>
+        <v>2.761818684511615</v>
       </c>
       <c r="J15">
-        <v>7.129159586799832</v>
+        <v>7.339834869277166</v>
       </c>
       <c r="K15">
-        <v>11.27368725411157</v>
+        <v>11.12693126345522</v>
       </c>
       <c r="L15">
-        <v>7.329256892038603</v>
+        <v>9.762126741483547</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.662360147441933</v>
       </c>
       <c r="N15">
-        <v>7.32148783347243</v>
+        <v>7.385279440425562</v>
       </c>
       <c r="O15">
-        <v>15.16649581069661</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.403860461515296</v>
       </c>
       <c r="Q15">
-        <v>10.65234161730149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>15.21036421381535</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.40411812234462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.12310498929029</v>
+        <v>26.13171453979178</v>
       </c>
       <c r="C16">
-        <v>17.2999704360781</v>
+        <v>17.2088773933167</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.666535175809718</v>
+        <v>9.586886364200383</v>
       </c>
       <c r="F16">
-        <v>19.75134864187056</v>
+        <v>19.52030761140739</v>
       </c>
       <c r="G16">
-        <v>14.50774356425868</v>
+        <v>14.09539110309067</v>
       </c>
       <c r="H16">
-        <v>6.605021445436718</v>
+        <v>6.5985302028957</v>
       </c>
       <c r="I16">
-        <v>2.640550217636174</v>
+        <v>2.683399949933007</v>
       </c>
       <c r="J16">
-        <v>7.207739707965113</v>
+        <v>7.599736714617055</v>
       </c>
       <c r="K16">
-        <v>11.4930217718711</v>
+        <v>11.3458409399882</v>
       </c>
       <c r="L16">
-        <v>7.192321311682963</v>
+        <v>9.864553093587293</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.851043067052882</v>
       </c>
       <c r="N16">
-        <v>7.275035946868807</v>
+        <v>7.222480148541933</v>
       </c>
       <c r="O16">
-        <v>14.78544935674997</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.351415357634211</v>
       </c>
       <c r="Q16">
-        <v>10.76913941576904</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.81763645289801</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.61044194867496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.55441715729407</v>
+        <v>25.5664753457568</v>
       </c>
       <c r="C17">
-        <v>16.86529458904601</v>
+        <v>16.80015177169803</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.681569362654582</v>
+        <v>9.606535855415876</v>
       </c>
       <c r="F17">
-        <v>20.21553151776336</v>
+        <v>20.00293755071888</v>
       </c>
       <c r="G17">
-        <v>14.97146421828534</v>
+        <v>14.20695221658074</v>
       </c>
       <c r="H17">
-        <v>5.883391693072157</v>
+        <v>5.873982735255192</v>
       </c>
       <c r="I17">
-        <v>2.589618265932716</v>
+        <v>2.639650942771594</v>
       </c>
       <c r="J17">
-        <v>7.317623754716784</v>
+        <v>7.785412046917239</v>
       </c>
       <c r="K17">
-        <v>11.69294596428102</v>
+        <v>11.530567963021</v>
       </c>
       <c r="L17">
-        <v>7.011950224463001</v>
+        <v>9.964934952210633</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.013519592005278</v>
       </c>
       <c r="N17">
-        <v>7.4431782310964</v>
+        <v>7.033141992929107</v>
       </c>
       <c r="O17">
-        <v>14.70322942078597</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.522869944437775</v>
       </c>
       <c r="Q17">
-        <v>11.00421191963222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.733819204942</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.86469055811725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.17000947909602</v>
+        <v>25.1820432978988</v>
       </c>
       <c r="C18">
-        <v>16.32754459585393</v>
+        <v>16.30242007004593</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.767671679778697</v>
+        <v>9.689956689341725</v>
       </c>
       <c r="F18">
-        <v>21.13827094083428</v>
+        <v>20.89612604761582</v>
       </c>
       <c r="G18">
-        <v>15.8654544117167</v>
+        <v>14.91366586963432</v>
       </c>
       <c r="H18">
-        <v>4.659145513557837</v>
+        <v>4.646153345331643</v>
       </c>
       <c r="I18">
-        <v>2.564749572749119</v>
+        <v>2.616641908003118</v>
       </c>
       <c r="J18">
-        <v>7.472139770657826</v>
+        <v>7.957619605309407</v>
       </c>
       <c r="K18">
-        <v>11.92507413327675</v>
+        <v>11.73314195069398</v>
       </c>
       <c r="L18">
-        <v>6.779131350699663</v>
+        <v>10.09395510180592</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.187838380948659</v>
       </c>
       <c r="N18">
-        <v>7.824416274349392</v>
+        <v>6.800720705982717</v>
       </c>
       <c r="O18">
-        <v>14.86823349124883</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.914202012372594</v>
       </c>
       <c r="Q18">
-        <v>11.38045905170453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.90448986210785</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.2203162476775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.96690581291731</v>
+        <v>24.97635430327295</v>
       </c>
       <c r="C19">
-        <v>15.80690155451204</v>
+        <v>15.83185070475234</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.999535337225659</v>
+        <v>9.91287986281008</v>
       </c>
       <c r="F19">
-        <v>22.33780335381016</v>
+        <v>22.03562780182547</v>
       </c>
       <c r="G19">
-        <v>16.97524765326044</v>
+        <v>15.90903570420034</v>
       </c>
       <c r="H19">
-        <v>3.227564811459634</v>
+        <v>3.209434372134518</v>
       </c>
       <c r="I19">
-        <v>2.575340321489723</v>
+        <v>2.627249141812297</v>
       </c>
       <c r="J19">
-        <v>7.6446263558791</v>
+        <v>8.114671059791991</v>
       </c>
       <c r="K19">
-        <v>12.18313548984271</v>
+        <v>11.94823036156917</v>
       </c>
       <c r="L19">
-        <v>6.541652933300364</v>
+        <v>10.24322410009217</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.370984132833989</v>
       </c>
       <c r="N19">
-        <v>8.372208553960377</v>
+        <v>6.56815785093441</v>
       </c>
       <c r="O19">
-        <v>15.22062865209508</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.47679664679489</v>
       </c>
       <c r="Q19">
-        <v>11.82391318377706</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.2671219401054</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.61880666120475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.2917857705399</v>
+        <v>25.29178740789231</v>
       </c>
       <c r="C20">
-        <v>15.28760544916033</v>
+        <v>15.39158780143818</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.59244933146075</v>
+        <v>10.48669005907868</v>
       </c>
       <c r="F20">
-        <v>24.31428200326612</v>
+        <v>23.86751205083337</v>
       </c>
       <c r="G20">
-        <v>18.75460144584343</v>
+        <v>17.77027718457256</v>
       </c>
       <c r="H20">
-        <v>1.785031250226793</v>
+        <v>1.76324734778697</v>
       </c>
       <c r="I20">
-        <v>2.664319474422825</v>
+        <v>2.706717289731692</v>
       </c>
       <c r="J20">
-        <v>7.879796306768395</v>
+        <v>8.223413974865359</v>
       </c>
       <c r="K20">
-        <v>12.51999346183989</v>
+        <v>12.19322444196299</v>
       </c>
       <c r="L20">
-        <v>6.290713256830472</v>
+        <v>10.41290249471013</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.613000795068984</v>
       </c>
       <c r="N20">
-        <v>9.325118994629241</v>
+        <v>6.33205886031324</v>
       </c>
       <c r="O20">
-        <v>16.05546483072811</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.458218559222738</v>
       </c>
       <c r="Q20">
-        <v>12.48685077768427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.12368036209138</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.16533926621856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.78117627632873</v>
+        <v>26.76324751156797</v>
       </c>
       <c r="C21">
-        <v>15.75432361872281</v>
+        <v>15.83816435126271</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.7169987227572</v>
+        <v>10.62538158555095</v>
       </c>
       <c r="F21">
-        <v>24.9616311423911</v>
+        <v>24.25366695809088</v>
       </c>
       <c r="G21">
-        <v>19.27140443711036</v>
+        <v>19.94364594101113</v>
       </c>
       <c r="H21">
-        <v>1.597526611533273</v>
+        <v>1.599471768611884</v>
       </c>
       <c r="I21">
-        <v>2.84200778978697</v>
+        <v>2.859516629175494</v>
       </c>
       <c r="J21">
-        <v>7.842313726589029</v>
+        <v>7.603450147429622</v>
       </c>
       <c r="K21">
-        <v>12.28229262296056</v>
+        <v>11.84727904178587</v>
       </c>
       <c r="L21">
-        <v>6.424383636401028</v>
+        <v>10.16254164065231</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.437014702547422</v>
       </c>
       <c r="N21">
-        <v>9.701503455052766</v>
+        <v>6.510402243825331</v>
       </c>
       <c r="O21">
-        <v>16.92035579548817</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.864789581568264</v>
       </c>
       <c r="Q21">
-        <v>12.54603743799341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.01549128348654</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.96656493811943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.71858345597822</v>
+        <v>27.68935638919973</v>
       </c>
       <c r="C22">
-        <v>16.05957461099462</v>
+        <v>16.12111224944375</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.76800423765888</v>
+        <v>10.69084352627877</v>
       </c>
       <c r="F22">
-        <v>25.3268524280268</v>
+        <v>24.44121907520499</v>
       </c>
       <c r="G22">
-        <v>19.58875570963374</v>
+        <v>21.46170276907088</v>
       </c>
       <c r="H22">
-        <v>1.748579305828501</v>
+        <v>1.738312860867031</v>
       </c>
       <c r="I22">
-        <v>2.949856812623096</v>
+        <v>2.950315758193813</v>
       </c>
       <c r="J22">
-        <v>7.816591186120755</v>
+        <v>7.255912800789284</v>
       </c>
       <c r="K22">
-        <v>12.12457768608965</v>
+        <v>11.61274143160818</v>
       </c>
       <c r="L22">
-        <v>6.519499465847225</v>
+        <v>10.00273242627954</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.323995545969096</v>
       </c>
       <c r="N22">
-        <v>9.895161839250409</v>
+        <v>6.636113364734091</v>
       </c>
       <c r="O22">
-        <v>17.43391159937194</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.07852587593205</v>
       </c>
       <c r="Q22">
-        <v>12.58031419280966</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>17.54575323027192</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.81761758787932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.22361110966286</v>
+        <v>27.2011045872348</v>
       </c>
       <c r="C23">
-        <v>15.87416505843312</v>
+        <v>15.95950831887548</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.74408844315848</v>
+        <v>10.65512401957128</v>
       </c>
       <c r="F23">
-        <v>25.15570354351902</v>
+        <v>24.38628480707829</v>
       </c>
       <c r="G23">
-        <v>19.46119629613938</v>
+        <v>20.49893639573209</v>
       </c>
       <c r="H23">
-        <v>1.668813617052298</v>
+        <v>1.665609939672685</v>
       </c>
       <c r="I23">
-        <v>2.887639314196409</v>
+        <v>2.896419892935098</v>
       </c>
       <c r="J23">
-        <v>7.837047420171716</v>
+        <v>7.484426331374417</v>
       </c>
       <c r="K23">
-        <v>12.22253805644223</v>
+        <v>11.75976756649931</v>
       </c>
       <c r="L23">
-        <v>6.465728442581002</v>
+        <v>10.09951256467491</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.405525076612994</v>
       </c>
       <c r="N23">
-        <v>9.786349735800147</v>
+        <v>6.562681537974564</v>
       </c>
       <c r="O23">
-        <v>17.15775744515091</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.956524159042749</v>
       </c>
       <c r="Q23">
-        <v>12.57924795140194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.2590813334473</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.9378717700375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.25887139352148</v>
+        <v>25.25868079333028</v>
       </c>
       <c r="C24">
-        <v>15.19402885477619</v>
+        <v>15.30085681847791</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.6485512857915</v>
+        <v>10.5413059364146</v>
       </c>
       <c r="F24">
-        <v>24.48114272507713</v>
+        <v>24.02834326609154</v>
       </c>
       <c r="G24">
-        <v>18.94110968932044</v>
+        <v>17.93399474146518</v>
       </c>
       <c r="H24">
-        <v>1.766636678182078</v>
+        <v>1.744719578066038</v>
       </c>
       <c r="I24">
-        <v>2.655798841580467</v>
+        <v>2.695992941060935</v>
       </c>
       <c r="J24">
-        <v>7.91106155124832</v>
+        <v>8.255144067540888</v>
       </c>
       <c r="K24">
-        <v>12.58094474483974</v>
+        <v>12.24620878993514</v>
       </c>
       <c r="L24">
-        <v>6.262655133562851</v>
+        <v>10.4494583262232</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.658011381138315</v>
       </c>
       <c r="N24">
-        <v>9.374977037679914</v>
+        <v>6.303614088487956</v>
       </c>
       <c r="O24">
-        <v>16.07729594132043</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.50978895981731</v>
       </c>
       <c r="Q24">
-        <v>12.56528601168114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.1464965209859</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.23891748689537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.95004251264606</v>
+        <v>22.96622509496758</v>
       </c>
       <c r="C25">
-        <v>14.42923612321162</v>
+        <v>14.41132021871215</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.54635280132018</v>
+        <v>10.45966748371227</v>
       </c>
       <c r="F25">
-        <v>23.78357475672051</v>
+        <v>23.42853370998416</v>
       </c>
       <c r="G25">
-        <v>18.44989063046703</v>
+        <v>17.36074561924052</v>
       </c>
       <c r="H25">
-        <v>2.123084043653185</v>
+        <v>2.081094929465365</v>
       </c>
       <c r="I25">
-        <v>2.587768313830054</v>
+        <v>2.532115665181641</v>
       </c>
       <c r="J25">
-        <v>8.007195214529943</v>
+        <v>8.391841740664418</v>
       </c>
       <c r="K25">
-        <v>12.98978797714991</v>
+        <v>12.67499267675982</v>
       </c>
       <c r="L25">
-        <v>6.03405440492746</v>
+        <v>10.78759334150627</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.895592452506446</v>
       </c>
       <c r="N25">
-        <v>8.914207118343427</v>
+        <v>6.049004980119772</v>
       </c>
       <c r="O25">
-        <v>14.82632621771012</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>9.039413115728774</v>
       </c>
       <c r="Q25">
-        <v>12.58936831520078</v>
+        <v>14.87800473014599</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.32967062618395</v>
       </c>
     </row>
   </sheetData>
